--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_25_31.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_25_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>768876.3454544104</v>
+        <v>768282.478743172</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16669274.7914033</v>
+        <v>16669274.79140329</v>
       </c>
     </row>
     <row r="8">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>131.6224207170397</v>
       </c>
       <c r="C11" t="n">
-        <v>101.7754565731332</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>131.6224207170398</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>32.2347546112463</v>
+        <v>32.23475461124627</v>
       </c>
       <c r="V11" t="n">
-        <v>113.5452377002289</v>
+        <v>83.69827355632223</v>
       </c>
       <c r="W11" t="n">
-        <v>131.6224207170398</v>
+        <v>131.6224207170397</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>131.6224207170397</v>
       </c>
     </row>
     <row r="12">
@@ -1506,10 +1506,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>6.04742266336018</v>
+        <v>6.047422663360152</v>
       </c>
       <c r="W12" t="n">
-        <v>18.83846641623387</v>
+        <v>18.83846641623384</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>9.884882276754396</v>
+        <v>9.884882276754366</v>
       </c>
       <c r="U13" t="n">
-        <v>64.24262914177298</v>
+        <v>64.24262914177295</v>
       </c>
       <c r="V13" t="n">
-        <v>38.06370773437243</v>
+        <v>38.0637077343724</v>
       </c>
       <c r="W13" t="n">
-        <v>63.23059380498569</v>
+        <v>63.23059380498566</v>
       </c>
       <c r="X13" t="n">
-        <v>8.875695800788804</v>
+        <v>8.875695800788776</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>131.6224207170397</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>131.6224207170398</v>
+        <v>128.7676800780718</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>131.6224207170398</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>104.630197212101</v>
@@ -1661,10 +1661,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>32.2347546112463</v>
+        <v>32.23475461124627</v>
       </c>
       <c r="V14" t="n">
-        <v>110.6904970612611</v>
+        <v>113.5452377002289</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>6.04742266336018</v>
+        <v>6.047422663360152</v>
       </c>
       <c r="W15" t="n">
-        <v>18.83846641623387</v>
+        <v>18.83846641623384</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>9.884882276754396</v>
+        <v>9.884882276754366</v>
       </c>
       <c r="U16" t="n">
-        <v>64.24262914177298</v>
+        <v>64.24262914177295</v>
       </c>
       <c r="V16" t="n">
-        <v>38.06370773437243</v>
+        <v>38.0637077343724</v>
       </c>
       <c r="W16" t="n">
-        <v>63.23059380498569</v>
+        <v>63.23059380498566</v>
       </c>
       <c r="X16" t="n">
-        <v>8.875695800788804</v>
+        <v>8.875695800788776</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>60.18608130266745</v>
+        <v>60.1860813026675</v>
       </c>
       <c r="C17" t="n">
-        <v>48.19739826034919</v>
+        <v>48.19739826034925</v>
       </c>
       <c r="D17" t="n">
-        <v>39.17870230487688</v>
+        <v>39.17870230487722</v>
       </c>
       <c r="E17" t="n">
-        <v>60.9208398747827</v>
+        <v>60.92083987478276</v>
       </c>
       <c r="F17" t="n">
-        <v>80.09265596275986</v>
+        <v>80.09265596275992</v>
       </c>
       <c r="G17" t="n">
-        <v>81.55736574630238</v>
+        <v>81.55736574630242</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.692458542846566</v>
+        <v>3.692458542846623</v>
       </c>
       <c r="W17" t="n">
-        <v>28.99255802080347</v>
+        <v>28.99255802080353</v>
       </c>
       <c r="X17" t="n">
-        <v>48.29281625355009</v>
+        <v>48.29281625355014</v>
       </c>
       <c r="Y17" t="n">
-        <v>59.68941404974885</v>
+        <v>59.6894140497489</v>
       </c>
     </row>
     <row r="18">
@@ -2330,7 +2330,7 @@
         <v>80.09265596275986</v>
       </c>
       <c r="G23" t="n">
-        <v>81.55736574630238</v>
+        <v>81.55736574630237</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>180.9748428097537</v>
+        <v>180.9748428097538</v>
       </c>
       <c r="C26" t="n">
-        <v>168.9861597674354</v>
+        <v>168.9861597674355</v>
       </c>
       <c r="D26" t="n">
-        <v>159.9674638119634</v>
+        <v>159.9674638119635</v>
       </c>
       <c r="E26" t="n">
-        <v>181.7096013818689</v>
+        <v>181.709601381869</v>
       </c>
       <c r="F26" t="n">
-        <v>200.8814174698461</v>
+        <v>200.8814174698462</v>
       </c>
       <c r="G26" t="n">
-        <v>202.3461272533886</v>
+        <v>202.3461272533887</v>
       </c>
       <c r="H26" t="n">
-        <v>115.5661795618049</v>
+        <v>115.566179561805</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,22 +2606,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>10.93598234970395</v>
+        <v>10.93598234970401</v>
       </c>
       <c r="U26" t="n">
-        <v>43.17073696095022</v>
+        <v>43.17073696095031</v>
       </c>
       <c r="V26" t="n">
-        <v>124.4812200499328</v>
+        <v>124.4812200499329</v>
       </c>
       <c r="W26" t="n">
-        <v>149.7813195278897</v>
+        <v>149.7813195278898</v>
       </c>
       <c r="X26" t="n">
-        <v>169.0815777606363</v>
+        <v>169.0815777606364</v>
       </c>
       <c r="Y26" t="n">
-        <v>180.4781755568351</v>
+        <v>180.4781755568352</v>
       </c>
     </row>
     <row r="27">
@@ -2688,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>7.165089697961109</v>
+        <v>7.165089697961195</v>
       </c>
       <c r="V27" t="n">
-        <v>16.9834050130641</v>
+        <v>16.98340501306419</v>
       </c>
       <c r="W27" t="n">
-        <v>29.77444876593779</v>
+        <v>29.77444876593788</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>20.82086462645832</v>
+        <v>20.8208646264584</v>
       </c>
       <c r="U28" t="n">
-        <v>75.1786114914769</v>
+        <v>75.17861149147699</v>
       </c>
       <c r="V28" t="n">
-        <v>48.99969008407635</v>
+        <v>48.99969008407643</v>
       </c>
       <c r="W28" t="n">
-        <v>74.16657615468961</v>
+        <v>74.16657615468969</v>
       </c>
       <c r="X28" t="n">
-        <v>19.81167815049272</v>
+        <v>19.81167815049281</v>
       </c>
       <c r="Y28" t="n">
-        <v>10.68654590656041</v>
+        <v>10.6865459065605</v>
       </c>
     </row>
     <row r="29">
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>10.93598234970395</v>
+        <v>10.93598234970392</v>
       </c>
       <c r="U29" t="n">
         <v>43.17073696095022</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>180.9748428097535</v>
+        <v>180.9748428097537</v>
       </c>
       <c r="C32" t="n">
-        <v>168.9861597674353</v>
+        <v>168.9861597674354</v>
       </c>
       <c r="D32" t="n">
-        <v>159.9674638119633</v>
+        <v>159.9674638119634</v>
       </c>
       <c r="E32" t="n">
-        <v>181.7096013818688</v>
+        <v>181.7096013818689</v>
       </c>
       <c r="F32" t="n">
-        <v>200.881417469846</v>
+        <v>200.8814174698461</v>
       </c>
       <c r="G32" t="n">
-        <v>202.3461272533885</v>
+        <v>202.3461272533886</v>
       </c>
       <c r="H32" t="n">
-        <v>115.5661795618048</v>
+        <v>115.5661795618049</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>10.93598234970381</v>
+        <v>10.93598234970392</v>
       </c>
       <c r="U32" t="n">
-        <v>43.17073696095008</v>
+        <v>43.17073696095022</v>
       </c>
       <c r="V32" t="n">
-        <v>124.4812200499327</v>
+        <v>124.4812200499328</v>
       </c>
       <c r="W32" t="n">
-        <v>149.7813195278896</v>
+        <v>149.7813195278897</v>
       </c>
       <c r="X32" t="n">
-        <v>169.0815777606362</v>
+        <v>169.0815777606363</v>
       </c>
       <c r="Y32" t="n">
-        <v>180.4781755568349</v>
+        <v>180.4781755568351</v>
       </c>
     </row>
     <row r="33">
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>7.165089697960967</v>
+        <v>7.165089697961109</v>
       </c>
       <c r="V33" t="n">
-        <v>16.98340501306396</v>
+        <v>16.9834050130641</v>
       </c>
       <c r="W33" t="n">
-        <v>29.77444876593765</v>
+        <v>29.77444876593779</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3238,22 +3238,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>20.82086462645817</v>
+        <v>20.82086462645832</v>
       </c>
       <c r="U34" t="n">
-        <v>75.17861149147676</v>
+        <v>75.1786114914769</v>
       </c>
       <c r="V34" t="n">
-        <v>48.99969008407621</v>
+        <v>48.99969008407635</v>
       </c>
       <c r="W34" t="n">
-        <v>74.16657615468947</v>
+        <v>74.16657615468961</v>
       </c>
       <c r="X34" t="n">
-        <v>19.81167815049258</v>
+        <v>19.81167815049272</v>
       </c>
       <c r="Y34" t="n">
-        <v>10.68654590656027</v>
+        <v>10.68654590656041</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>139.3194838123384</v>
+        <v>139.3194838123383</v>
       </c>
       <c r="C35" t="n">
-        <v>127.3308007700201</v>
+        <v>127.33080077002</v>
       </c>
       <c r="D35" t="n">
-        <v>118.3121048145481</v>
+        <v>118.312104814548</v>
       </c>
       <c r="E35" t="n">
-        <v>140.0542423844536</v>
+        <v>140.0542423844535</v>
       </c>
       <c r="F35" t="n">
-        <v>159.2260584724308</v>
+        <v>159.2260584724307</v>
       </c>
       <c r="G35" t="n">
-        <v>160.6907682559733</v>
+        <v>160.6907682559732</v>
       </c>
       <c r="H35" t="n">
-        <v>73.91082056438961</v>
+        <v>73.91082056438948</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.515377963534917</v>
+        <v>1.515377963534813</v>
       </c>
       <c r="V35" t="n">
-        <v>82.8258610525175</v>
+        <v>82.82586105251738</v>
       </c>
       <c r="W35" t="n">
-        <v>108.1259605304744</v>
+        <v>108.1259605304743</v>
       </c>
       <c r="X35" t="n">
-        <v>127.426218763221</v>
+        <v>127.4262187632209</v>
       </c>
       <c r="Y35" t="n">
-        <v>138.8228165594198</v>
+        <v>138.8228165594197</v>
       </c>
     </row>
     <row r="36">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>33.52325249406159</v>
+        <v>33.52325249406148</v>
       </c>
       <c r="V37" t="n">
-        <v>7.344331086661043</v>
+        <v>7.344331086660929</v>
       </c>
       <c r="W37" t="n">
-        <v>32.5112171572743</v>
+        <v>32.51121715727419</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>139.3194838123384</v>
+        <v>139.3194838123383</v>
       </c>
       <c r="C38" t="n">
-        <v>127.3308007700201</v>
+        <v>127.33080077002</v>
       </c>
       <c r="D38" t="n">
-        <v>118.3121048145481</v>
+        <v>118.312104814548</v>
       </c>
       <c r="E38" t="n">
-        <v>140.0542423844536</v>
+        <v>140.0542423844535</v>
       </c>
       <c r="F38" t="n">
-        <v>159.2260584724308</v>
+        <v>159.2260584724307</v>
       </c>
       <c r="G38" t="n">
-        <v>160.6907682559733</v>
+        <v>160.6907682559732</v>
       </c>
       <c r="H38" t="n">
-        <v>73.9108205643896</v>
+        <v>73.91082056438948</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.515377963534927</v>
+        <v>1.515377963534813</v>
       </c>
       <c r="V38" t="n">
-        <v>82.8258610525175</v>
+        <v>82.82586105251738</v>
       </c>
       <c r="W38" t="n">
-        <v>108.1259605304744</v>
+        <v>108.1259605304743</v>
       </c>
       <c r="X38" t="n">
-        <v>127.426218763221</v>
+        <v>127.4262187632209</v>
       </c>
       <c r="Y38" t="n">
-        <v>138.8228165594198</v>
+        <v>138.8228165594197</v>
       </c>
     </row>
     <row r="39">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>33.52325249406159</v>
+        <v>33.52325249406148</v>
       </c>
       <c r="V40" t="n">
-        <v>7.344331086661043</v>
+        <v>7.344331086660929</v>
       </c>
       <c r="W40" t="n">
-        <v>32.5112171572743</v>
+        <v>32.51121715727419</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,19 +3743,19 @@
         <v>127.3308007700201</v>
       </c>
       <c r="D41" t="n">
-        <v>118.312104814548</v>
+        <v>118.3121048145481</v>
       </c>
       <c r="E41" t="n">
         <v>140.0542423844536</v>
       </c>
       <c r="F41" t="n">
-        <v>159.2260584724307</v>
+        <v>159.2260584724308</v>
       </c>
       <c r="G41" t="n">
-        <v>160.6907682559732</v>
+        <v>160.6907682559733</v>
       </c>
       <c r="H41" t="n">
-        <v>73.91082056438954</v>
+        <v>73.91082056438958</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.51537796353487</v>
+        <v>1.515377963534888</v>
       </c>
       <c r="V41" t="n">
-        <v>82.82586105251744</v>
+        <v>82.82586105251747</v>
       </c>
       <c r="W41" t="n">
-        <v>108.1259605304743</v>
+        <v>108.1259605304744</v>
       </c>
       <c r="X41" t="n">
         <v>127.426218763221</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>33.52325249406154</v>
+        <v>33.52325249406157</v>
       </c>
       <c r="V43" t="n">
-        <v>7.344331086660986</v>
+        <v>7.344331086661015</v>
       </c>
       <c r="W43" t="n">
-        <v>32.51121715727425</v>
+        <v>32.51121715727427</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>139.3194838123383</v>
+        <v>139.3194838123384</v>
       </c>
       <c r="C44" t="n">
-        <v>127.3308007700201</v>
+        <v>127.3308007700202</v>
       </c>
       <c r="D44" t="n">
-        <v>118.312104814548</v>
+        <v>118.3121048145481</v>
       </c>
       <c r="E44" t="n">
-        <v>140.0542423844536</v>
+        <v>140.0542423844537</v>
       </c>
       <c r="F44" t="n">
-        <v>159.2260584724307</v>
+        <v>159.2260584724309</v>
       </c>
       <c r="G44" t="n">
-        <v>160.6907682559732</v>
+        <v>160.6907682559734</v>
       </c>
       <c r="H44" t="n">
-        <v>73.91082056438955</v>
+        <v>73.91082056438967</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>1.51537796353486</v>
+        <v>1.515377963534984</v>
       </c>
       <c r="V44" t="n">
-        <v>82.82586105251744</v>
+        <v>82.82586105251755</v>
       </c>
       <c r="W44" t="n">
-        <v>108.1259605304743</v>
+        <v>108.1259605304745</v>
       </c>
       <c r="X44" t="n">
-        <v>127.426218763221</v>
+        <v>127.4262187632211</v>
       </c>
       <c r="Y44" t="n">
-        <v>138.8228165594197</v>
+        <v>138.8228165594198</v>
       </c>
     </row>
     <row r="45">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>33.52325249406154</v>
+        <v>33.52325249406165</v>
       </c>
       <c r="V46" t="n">
-        <v>7.344331086660986</v>
+        <v>7.3443310866611</v>
       </c>
       <c r="W46" t="n">
-        <v>32.51121715727425</v>
+        <v>32.51121715727436</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>246.2852252635985</v>
+        <v>10.52979365736318</v>
       </c>
       <c r="C11" t="n">
-        <v>143.4817337755852</v>
+        <v>10.52979365736318</v>
       </c>
       <c r="D11" t="n">
-        <v>143.4817337755852</v>
+        <v>10.52979365736318</v>
       </c>
       <c r="E11" t="n">
-        <v>143.4817337755852</v>
+        <v>10.52979365736318</v>
       </c>
       <c r="F11" t="n">
-        <v>143.4817337755852</v>
+        <v>10.52979365736318</v>
       </c>
       <c r="G11" t="n">
         <v>10.52979365736318</v>
@@ -5036,55 +5036,55 @@
         <v>10.52979365736318</v>
       </c>
       <c r="I11" t="n">
-        <v>76.8987041667709</v>
+        <v>76.89870416677093</v>
       </c>
       <c r="J11" t="n">
-        <v>76.8987041667709</v>
+        <v>188.5041073150231</v>
       </c>
       <c r="K11" t="n">
-        <v>176.7338571453054</v>
+        <v>188.5041073150231</v>
       </c>
       <c r="L11" t="n">
-        <v>176.7338571453054</v>
+        <v>227.8435400355899</v>
       </c>
       <c r="M11" t="n">
-        <v>290.764664883974</v>
+        <v>227.8435400355899</v>
       </c>
       <c r="N11" t="n">
-        <v>318.8285109267658</v>
+        <v>227.8435400355899</v>
       </c>
       <c r="O11" t="n">
-        <v>318.8285109267658</v>
+        <v>338.7791956503324</v>
       </c>
       <c r="P11" t="n">
-        <v>318.8285109267658</v>
+        <v>437.3502059647005</v>
       </c>
       <c r="Q11" t="n">
-        <v>407.967987830224</v>
+        <v>526.4896828681588</v>
       </c>
       <c r="R11" t="n">
-        <v>481.5587050619477</v>
+        <v>526.4896828681588</v>
       </c>
       <c r="S11" t="n">
-        <v>526.4896828681592</v>
+        <v>526.4896828681588</v>
       </c>
       <c r="T11" t="n">
-        <v>526.4896828681592</v>
+        <v>526.4896828681588</v>
       </c>
       <c r="U11" t="n">
-        <v>493.9293246749811</v>
+        <v>493.9293246749806</v>
       </c>
       <c r="V11" t="n">
-        <v>379.2371653818206</v>
+        <v>409.3856140120289</v>
       </c>
       <c r="W11" t="n">
-        <v>246.2852252635985</v>
+        <v>276.4336738938071</v>
       </c>
       <c r="X11" t="n">
-        <v>246.2852252635985</v>
+        <v>276.4336738938071</v>
       </c>
       <c r="Y11" t="n">
-        <v>246.2852252635985</v>
+        <v>143.4817337755851</v>
       </c>
     </row>
     <row r="12">
@@ -5127,34 +5127,34 @@
         <v>10.52979365736318</v>
       </c>
       <c r="M12" t="n">
-        <v>10.52979365736318</v>
+        <v>35.66705535392276</v>
       </c>
       <c r="N12" t="n">
-        <v>10.52979365736318</v>
+        <v>35.66705535392276</v>
       </c>
       <c r="O12" t="n">
-        <v>10.52979365736318</v>
+        <v>35.66705535392276</v>
       </c>
       <c r="P12" t="n">
-        <v>10.52979365736318</v>
+        <v>35.66705535392276</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.52979365736318</v>
+        <v>35.66705535392276</v>
       </c>
       <c r="R12" t="n">
-        <v>10.52979365736318</v>
+        <v>35.66705535392276</v>
       </c>
       <c r="S12" t="n">
-        <v>10.52979365736318</v>
+        <v>35.66705535392276</v>
       </c>
       <c r="T12" t="n">
-        <v>35.66705535392283</v>
+        <v>35.66705535392276</v>
       </c>
       <c r="U12" t="n">
-        <v>35.66705535392283</v>
+        <v>35.66705535392276</v>
       </c>
       <c r="V12" t="n">
-        <v>29.55854761315497</v>
+        <v>29.55854761315494</v>
       </c>
       <c r="W12" t="n">
         <v>10.52979365736318</v>
@@ -5182,61 +5182,61 @@
         <v>10.52979365736318</v>
       </c>
       <c r="E13" t="n">
-        <v>10.52979365736318</v>
+        <v>79.40936002819309</v>
       </c>
       <c r="F13" t="n">
-        <v>10.52979365736318</v>
+        <v>79.40936002819309</v>
       </c>
       <c r="G13" t="n">
-        <v>10.52979365736318</v>
+        <v>79.40936002819309</v>
       </c>
       <c r="H13" t="n">
-        <v>10.52979365736318</v>
+        <v>79.40936002819309</v>
       </c>
       <c r="I13" t="n">
-        <v>10.52979365736318</v>
+        <v>79.40936002819309</v>
       </c>
       <c r="J13" t="n">
-        <v>10.52979365736318</v>
+        <v>79.40936002819309</v>
       </c>
       <c r="K13" t="n">
-        <v>10.52979365736318</v>
+        <v>79.40936002819309</v>
       </c>
       <c r="L13" t="n">
-        <v>66.38269690373042</v>
+        <v>79.40936002819309</v>
       </c>
       <c r="M13" t="n">
-        <v>66.38269690373042</v>
+        <v>196.6888934135997</v>
       </c>
       <c r="N13" t="n">
-        <v>196.6888934135998</v>
+        <v>196.6888934135997</v>
       </c>
       <c r="O13" t="n">
-        <v>196.6888934135998</v>
+        <v>196.6888934135997</v>
       </c>
       <c r="P13" t="n">
-        <v>196.6888934135998</v>
+        <v>196.6888934135997</v>
       </c>
       <c r="Q13" t="n">
-        <v>196.6888934135998</v>
+        <v>196.6888934135997</v>
       </c>
       <c r="R13" t="n">
-        <v>196.6888934135998</v>
+        <v>196.6888934135997</v>
       </c>
       <c r="S13" t="n">
-        <v>196.6888934135998</v>
+        <v>196.6888934135997</v>
       </c>
       <c r="T13" t="n">
-        <v>186.7041638411206</v>
+        <v>186.7041638411205</v>
       </c>
       <c r="U13" t="n">
-        <v>121.8126192534712</v>
+        <v>121.8126192534711</v>
       </c>
       <c r="V13" t="n">
-        <v>83.36442962279196</v>
+        <v>83.3644296227919</v>
       </c>
       <c r="W13" t="n">
-        <v>19.49514295108925</v>
+        <v>19.49514295108921</v>
       </c>
       <c r="X13" t="n">
         <v>10.52979365736318</v>
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.1207417848184</v>
+        <v>246.2852252635983</v>
       </c>
       <c r="C14" t="n">
-        <v>382.1207417848184</v>
+        <v>246.2852252635983</v>
       </c>
       <c r="D14" t="n">
-        <v>249.1688016665964</v>
+        <v>116.2168615483743</v>
       </c>
       <c r="E14" t="n">
-        <v>249.1688016665964</v>
+        <v>116.2168615483743</v>
       </c>
       <c r="F14" t="n">
-        <v>249.1688016665964</v>
+        <v>116.2168615483743</v>
       </c>
       <c r="G14" t="n">
         <v>116.2168615483743</v>
@@ -5276,52 +5276,52 @@
         <v>10.52979365736318</v>
       </c>
       <c r="J14" t="n">
-        <v>122.1351968056153</v>
+        <v>122.1351968056154</v>
       </c>
       <c r="K14" t="n">
-        <v>122.1351968056153</v>
+        <v>122.1351968056154</v>
       </c>
       <c r="L14" t="n">
-        <v>223.5567527008515</v>
+        <v>212.3837426112894</v>
       </c>
       <c r="M14" t="n">
-        <v>223.5567527008515</v>
+        <v>326.4145503499581</v>
       </c>
       <c r="N14" t="n">
-        <v>227.8435400355906</v>
+        <v>326.4145503499581</v>
       </c>
       <c r="O14" t="n">
-        <v>338.779195650333</v>
+        <v>437.3502059647005</v>
       </c>
       <c r="P14" t="n">
-        <v>437.350205964701</v>
+        <v>437.3502059647005</v>
       </c>
       <c r="Q14" t="n">
-        <v>526.4896828681592</v>
+        <v>526.4896828681588</v>
       </c>
       <c r="R14" t="n">
-        <v>526.4896828681592</v>
+        <v>526.4896828681588</v>
       </c>
       <c r="S14" t="n">
-        <v>526.4896828681592</v>
+        <v>526.4896828681588</v>
       </c>
       <c r="T14" t="n">
-        <v>526.4896828681592</v>
+        <v>526.4896828681588</v>
       </c>
       <c r="U14" t="n">
-        <v>493.9293246749811</v>
+        <v>493.9293246749807</v>
       </c>
       <c r="V14" t="n">
-        <v>382.1207417848184</v>
+        <v>379.2371653818202</v>
       </c>
       <c r="W14" t="n">
-        <v>382.1207417848184</v>
+        <v>379.2371653818202</v>
       </c>
       <c r="X14" t="n">
-        <v>382.1207417848184</v>
+        <v>379.2371653818202</v>
       </c>
       <c r="Y14" t="n">
-        <v>382.1207417848184</v>
+        <v>379.2371653818202</v>
       </c>
     </row>
     <row r="15">
@@ -5337,61 +5337,61 @@
         <v>10.52979365736318</v>
       </c>
       <c r="D15" t="n">
-        <v>10.52979365736318</v>
+        <v>35.66705535392276</v>
       </c>
       <c r="E15" t="n">
-        <v>10.52979365736318</v>
+        <v>35.66705535392276</v>
       </c>
       <c r="F15" t="n">
-        <v>10.52979365736318</v>
+        <v>35.66705535392276</v>
       </c>
       <c r="G15" t="n">
-        <v>10.52979365736318</v>
+        <v>35.66705535392276</v>
       </c>
       <c r="H15" t="n">
-        <v>10.52979365736318</v>
+        <v>35.66705535392276</v>
       </c>
       <c r="I15" t="n">
-        <v>35.66705535392283</v>
+        <v>35.66705535392276</v>
       </c>
       <c r="J15" t="n">
-        <v>35.66705535392283</v>
+        <v>35.66705535392276</v>
       </c>
       <c r="K15" t="n">
-        <v>35.66705535392283</v>
+        <v>35.66705535392276</v>
       </c>
       <c r="L15" t="n">
-        <v>35.66705535392283</v>
+        <v>35.66705535392276</v>
       </c>
       <c r="M15" t="n">
-        <v>35.66705535392283</v>
+        <v>35.66705535392276</v>
       </c>
       <c r="N15" t="n">
-        <v>35.66705535392283</v>
+        <v>35.66705535392276</v>
       </c>
       <c r="O15" t="n">
-        <v>35.66705535392283</v>
+        <v>35.66705535392276</v>
       </c>
       <c r="P15" t="n">
-        <v>35.66705535392283</v>
+        <v>35.66705535392276</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.66705535392283</v>
+        <v>35.66705535392276</v>
       </c>
       <c r="R15" t="n">
-        <v>35.66705535392283</v>
+        <v>35.66705535392276</v>
       </c>
       <c r="S15" t="n">
-        <v>35.66705535392283</v>
+        <v>35.66705535392276</v>
       </c>
       <c r="T15" t="n">
-        <v>35.66705535392283</v>
+        <v>35.66705535392276</v>
       </c>
       <c r="U15" t="n">
-        <v>35.66705535392283</v>
+        <v>35.66705535392276</v>
       </c>
       <c r="V15" t="n">
-        <v>29.55854761315497</v>
+        <v>29.55854761315494</v>
       </c>
       <c r="W15" t="n">
         <v>10.52979365736318</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.77673573607526</v>
+        <v>10.52979365736318</v>
       </c>
       <c r="C16" t="n">
-        <v>10.77673573607526</v>
+        <v>10.52979365736318</v>
       </c>
       <c r="D16" t="n">
-        <v>10.77673573607526</v>
+        <v>10.52979365736318</v>
       </c>
       <c r="E16" t="n">
-        <v>54.34981503494211</v>
+        <v>10.52979365736318</v>
       </c>
       <c r="F16" t="n">
-        <v>54.34981503494211</v>
+        <v>10.52979365736318</v>
       </c>
       <c r="G16" t="n">
-        <v>54.34981503494211</v>
+        <v>10.52979365736318</v>
       </c>
       <c r="H16" t="n">
-        <v>54.34981503494211</v>
+        <v>10.52979365736318</v>
       </c>
       <c r="I16" t="n">
-        <v>54.34981503494211</v>
+        <v>10.52979365736318</v>
       </c>
       <c r="J16" t="n">
-        <v>54.34981503494211</v>
+        <v>10.52979365736318</v>
       </c>
       <c r="K16" t="n">
-        <v>184.6560115448115</v>
+        <v>10.52979365736318</v>
       </c>
       <c r="L16" t="n">
-        <v>184.6560115448115</v>
+        <v>10.52979365736318</v>
       </c>
       <c r="M16" t="n">
-        <v>184.6560115448115</v>
+        <v>140.8359901672325</v>
       </c>
       <c r="N16" t="n">
-        <v>184.6560115448115</v>
+        <v>140.8359901672325</v>
       </c>
       <c r="O16" t="n">
-        <v>184.6560115448115</v>
+        <v>140.8359901672325</v>
       </c>
       <c r="P16" t="n">
-        <v>184.6560115448115</v>
+        <v>140.8359901672325</v>
       </c>
       <c r="Q16" t="n">
-        <v>184.6560115448115</v>
+        <v>140.8359901672325</v>
       </c>
       <c r="R16" t="n">
-        <v>184.6560115448115</v>
+        <v>196.6888934135997</v>
       </c>
       <c r="S16" t="n">
-        <v>196.6888934135998</v>
+        <v>196.6888934135997</v>
       </c>
       <c r="T16" t="n">
-        <v>186.7041638411206</v>
+        <v>186.7041638411205</v>
       </c>
       <c r="U16" t="n">
-        <v>121.8126192534712</v>
+        <v>121.8126192534711</v>
       </c>
       <c r="V16" t="n">
-        <v>83.36442962279196</v>
+        <v>83.3644296227919</v>
       </c>
       <c r="W16" t="n">
-        <v>19.49514295108925</v>
+        <v>19.49514295108921</v>
       </c>
       <c r="X16" t="n">
         <v>10.52979365736318</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.77673573607526</v>
+        <v>10.52979365736318</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>323.6075332018798</v>
+        <v>323.6075332018793</v>
       </c>
       <c r="C17" t="n">
-        <v>274.9232925348604</v>
+        <v>274.9232925348598</v>
       </c>
       <c r="D17" t="n">
-        <v>235.3488457622575</v>
+        <v>235.3488457622565</v>
       </c>
       <c r="E17" t="n">
-        <v>173.8126438685376</v>
+        <v>173.8126438685366</v>
       </c>
       <c r="F17" t="n">
-        <v>92.91097117888074</v>
+        <v>92.91097117888077</v>
       </c>
       <c r="G17" t="n">
         <v>10.52979365736318</v>
       </c>
       <c r="H17" t="n">
-        <v>15.7001497831917</v>
+        <v>15.70014978319164</v>
       </c>
       <c r="I17" t="n">
-        <v>146.0063462930611</v>
+        <v>15.70014978319164</v>
       </c>
       <c r="J17" t="n">
-        <v>146.0063462930611</v>
+        <v>15.70014978319164</v>
       </c>
       <c r="K17" t="n">
-        <v>146.0063462930611</v>
+        <v>15.70014978319164</v>
       </c>
       <c r="L17" t="n">
-        <v>146.0063462930611</v>
+        <v>135.5710933385508</v>
       </c>
       <c r="M17" t="n">
-        <v>146.0063462930611</v>
+        <v>265.8772898484201</v>
       </c>
       <c r="N17" t="n">
-        <v>146.0063462930611</v>
+        <v>396.1834863582894</v>
       </c>
       <c r="O17" t="n">
-        <v>146.0063462930611</v>
+        <v>396.1834863582894</v>
       </c>
       <c r="P17" t="n">
-        <v>276.3125428029305</v>
+        <v>396.1834863582894</v>
       </c>
       <c r="Q17" t="n">
-        <v>406.6187393127999</v>
+        <v>396.1834863582894</v>
       </c>
       <c r="R17" t="n">
-        <v>406.6187393127999</v>
+        <v>526.4896828681588</v>
       </c>
       <c r="S17" t="n">
-        <v>406.6187393127999</v>
+        <v>526.4896828681588</v>
       </c>
       <c r="T17" t="n">
-        <v>515.3729906786084</v>
+        <v>526.4896828681588</v>
       </c>
       <c r="U17" t="n">
-        <v>526.4896828681592</v>
+        <v>526.4896828681588</v>
       </c>
       <c r="V17" t="n">
-        <v>522.7599267642738</v>
+        <v>522.7599267642732</v>
       </c>
       <c r="W17" t="n">
-        <v>493.474514622048</v>
+        <v>493.4745146220474</v>
       </c>
       <c r="X17" t="n">
-        <v>444.6938921437146</v>
+        <v>444.6938921437139</v>
       </c>
       <c r="Y17" t="n">
-        <v>384.4015547197257</v>
+        <v>384.401554719725</v>
       </c>
     </row>
     <row r="18">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>323.6075332018801</v>
+        <v>323.607533201879</v>
       </c>
       <c r="C20" t="n">
-        <v>274.9232925348606</v>
+        <v>274.9232925348596</v>
       </c>
       <c r="D20" t="n">
-        <v>235.3488457622573</v>
+        <v>235.3488457622564</v>
       </c>
       <c r="E20" t="n">
-        <v>173.8126438685374</v>
+        <v>173.8126438685367</v>
       </c>
       <c r="F20" t="n">
-        <v>92.91097117888073</v>
+        <v>92.91097117888071</v>
       </c>
       <c r="G20" t="n">
         <v>10.52979365736318</v>
@@ -5747,55 +5747,55 @@
         <v>10.52979365736318</v>
       </c>
       <c r="I20" t="n">
-        <v>10.52979365736318</v>
+        <v>135.5710933385508</v>
       </c>
       <c r="J20" t="n">
-        <v>10.52979365736318</v>
+        <v>135.5710933385508</v>
       </c>
       <c r="K20" t="n">
-        <v>10.52979365736318</v>
+        <v>135.5710933385508</v>
       </c>
       <c r="L20" t="n">
-        <v>10.52979365736318</v>
+        <v>135.5710933385508</v>
       </c>
       <c r="M20" t="n">
-        <v>140.8359901672326</v>
+        <v>265.8772898484201</v>
       </c>
       <c r="N20" t="n">
-        <v>140.8359901672326</v>
+        <v>265.8772898484201</v>
       </c>
       <c r="O20" t="n">
-        <v>140.8359901672326</v>
+        <v>265.8772898484201</v>
       </c>
       <c r="P20" t="n">
-        <v>140.8359901672326</v>
+        <v>265.8772898484201</v>
       </c>
       <c r="Q20" t="n">
-        <v>210.5873906918066</v>
+        <v>396.1834863582894</v>
       </c>
       <c r="R20" t="n">
-        <v>210.5873906918066</v>
+        <v>396.1834863582894</v>
       </c>
       <c r="S20" t="n">
-        <v>340.893587201676</v>
+        <v>526.4896828681588</v>
       </c>
       <c r="T20" t="n">
-        <v>449.6478385674845</v>
+        <v>526.4896828681588</v>
       </c>
       <c r="U20" t="n">
-        <v>526.4896828681592</v>
+        <v>526.4896828681588</v>
       </c>
       <c r="V20" t="n">
-        <v>522.7599267642738</v>
+        <v>522.7599267642727</v>
       </c>
       <c r="W20" t="n">
-        <v>493.474514622048</v>
+        <v>493.4745146220471</v>
       </c>
       <c r="X20" t="n">
-        <v>444.6938921437148</v>
+        <v>444.6938921437138</v>
       </c>
       <c r="Y20" t="n">
-        <v>384.401554719726</v>
+        <v>384.4015547197249</v>
       </c>
     </row>
     <row r="21">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>323.6075332018797</v>
+        <v>323.6075332018794</v>
       </c>
       <c r="C23" t="n">
-        <v>274.9232925348603</v>
+        <v>274.92329253486</v>
       </c>
       <c r="D23" t="n">
-        <v>235.3488457622571</v>
+        <v>235.3488457622568</v>
       </c>
       <c r="E23" t="n">
-        <v>173.8126438685372</v>
+        <v>173.8126438685368</v>
       </c>
       <c r="F23" t="n">
-        <v>92.91097117888074</v>
+        <v>92.91097117888071</v>
       </c>
       <c r="G23" t="n">
         <v>10.52979365736318</v>
@@ -5984,55 +5984,55 @@
         <v>10.52979365736318</v>
       </c>
       <c r="I23" t="n">
-        <v>10.52979365736318</v>
+        <v>58.72924903787617</v>
       </c>
       <c r="J23" t="n">
-        <v>10.52979365736318</v>
+        <v>189.0354455477455</v>
       </c>
       <c r="K23" t="n">
-        <v>10.52979365736318</v>
+        <v>189.0354455477455</v>
       </c>
       <c r="L23" t="n">
-        <v>10.52979365736318</v>
+        <v>189.0354455477455</v>
       </c>
       <c r="M23" t="n">
-        <v>10.52979365736318</v>
+        <v>189.0354455477455</v>
       </c>
       <c r="N23" t="n">
-        <v>140.8359901672326</v>
+        <v>189.0354455477455</v>
       </c>
       <c r="O23" t="n">
-        <v>271.142186677102</v>
+        <v>319.3416420576148</v>
       </c>
       <c r="P23" t="n">
-        <v>401.4483831869715</v>
+        <v>319.3416420576148</v>
       </c>
       <c r="Q23" t="n">
-        <v>526.4896828681592</v>
+        <v>319.3416420576148</v>
       </c>
       <c r="R23" t="n">
-        <v>526.4896828681592</v>
+        <v>319.3416420576148</v>
       </c>
       <c r="S23" t="n">
-        <v>526.4896828681592</v>
+        <v>449.6478385674841</v>
       </c>
       <c r="T23" t="n">
-        <v>526.4896828681592</v>
+        <v>449.6478385674841</v>
       </c>
       <c r="U23" t="n">
-        <v>526.4896828681589</v>
+        <v>526.4896828681588</v>
       </c>
       <c r="V23" t="n">
-        <v>522.7599267642735</v>
+        <v>522.7599267642734</v>
       </c>
       <c r="W23" t="n">
-        <v>493.4745146220478</v>
+        <v>493.4745146220476</v>
       </c>
       <c r="X23" t="n">
-        <v>444.6938921437143</v>
+        <v>444.6938921437142</v>
       </c>
       <c r="Y23" t="n">
-        <v>384.4015547197256</v>
+        <v>384.4015547197254</v>
       </c>
     </row>
     <row r="24">
@@ -6200,73 +6200,73 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1078.782752367162</v>
+        <v>1078.782752367163</v>
       </c>
       <c r="C26" t="n">
-        <v>908.0896616929849</v>
+        <v>908.0896616929853</v>
       </c>
       <c r="D26" t="n">
-        <v>746.5063649132239</v>
+        <v>746.5063649132242</v>
       </c>
       <c r="E26" t="n">
-        <v>562.9613130123462</v>
+        <v>562.9613130123464</v>
       </c>
       <c r="F26" t="n">
-        <v>360.0507903155319</v>
+        <v>360.0507903155321</v>
       </c>
       <c r="G26" t="n">
-        <v>155.6607627868573</v>
+        <v>155.6607627868575</v>
       </c>
       <c r="H26" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796353</v>
       </c>
       <c r="I26" t="n">
-        <v>94.46953606116432</v>
+        <v>94.46953606116429</v>
       </c>
       <c r="J26" t="n">
-        <v>94.46953606116432</v>
+        <v>195.2483166832095</v>
       </c>
       <c r="K26" t="n">
-        <v>148.4171539323309</v>
+        <v>284.2568471355372</v>
       </c>
       <c r="L26" t="n">
-        <v>630.141848897129</v>
+        <v>374.8517805045664</v>
       </c>
       <c r="M26" t="n">
-        <v>733.3460341095906</v>
+        <v>428.2923307243734</v>
       </c>
       <c r="N26" t="n">
-        <v>838.6188154773829</v>
+        <v>910.0170256891721</v>
       </c>
       <c r="O26" t="n">
-        <v>1113.075461576827</v>
+        <v>1391.741720653971</v>
       </c>
       <c r="P26" t="n">
-        <v>1594.800156541625</v>
+        <v>1686.604067158876</v>
       </c>
       <c r="Q26" t="n">
-        <v>1946.362403898174</v>
+        <v>1764.916921536127</v>
       </c>
       <c r="R26" t="n">
-        <v>1946.362403898174</v>
+        <v>1912.258048618172</v>
       </c>
       <c r="S26" t="n">
-        <v>1946.362403898174</v>
+        <v>1946.362403898177</v>
       </c>
       <c r="T26" t="n">
-        <v>1935.315957080291</v>
+        <v>1935.315957080292</v>
       </c>
       <c r="U26" t="n">
-        <v>1891.70915206923</v>
+        <v>1891.709152069232</v>
       </c>
       <c r="V26" t="n">
-        <v>1765.970545958187</v>
+        <v>1765.970545958188</v>
       </c>
       <c r="W26" t="n">
-        <v>1614.676283808803</v>
+        <v>1614.676283808805</v>
       </c>
       <c r="X26" t="n">
-        <v>1443.886811323312</v>
+        <v>1443.886811323313</v>
       </c>
       <c r="Y26" t="n">
         <v>1261.585623892166</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796353</v>
       </c>
       <c r="C27" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796353</v>
       </c>
       <c r="D27" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796353</v>
       </c>
       <c r="E27" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796353</v>
       </c>
       <c r="F27" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796353</v>
       </c>
       <c r="G27" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796353</v>
       </c>
       <c r="H27" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796353</v>
       </c>
       <c r="I27" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796353</v>
       </c>
       <c r="J27" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796353</v>
       </c>
       <c r="K27" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796353</v>
       </c>
       <c r="L27" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796353</v>
       </c>
       <c r="M27" t="n">
-        <v>93.39486775166348</v>
+        <v>38.92724807796353</v>
       </c>
       <c r="N27" t="n">
-        <v>93.39486775166348</v>
+        <v>38.92724807796353</v>
       </c>
       <c r="O27" t="n">
-        <v>93.39486775166348</v>
+        <v>38.92724807796353</v>
       </c>
       <c r="P27" t="n">
-        <v>93.39486775166348</v>
+        <v>38.92724807796353</v>
       </c>
       <c r="Q27" t="n">
-        <v>93.39486775166348</v>
+        <v>38.92724807796353</v>
       </c>
       <c r="R27" t="n">
-        <v>93.39486775166348</v>
+        <v>38.92724807796353</v>
       </c>
       <c r="S27" t="n">
-        <v>93.39486775166348</v>
+        <v>93.3948677516638</v>
       </c>
       <c r="T27" t="n">
-        <v>93.39486775166348</v>
+        <v>93.3948677516638</v>
       </c>
       <c r="U27" t="n">
-        <v>86.15740341028862</v>
+        <v>86.15740341028885</v>
       </c>
       <c r="V27" t="n">
-        <v>69.00244885163802</v>
+        <v>69.00244885163815</v>
       </c>
       <c r="W27" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796353</v>
       </c>
       <c r="X27" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796353</v>
       </c>
       <c r="Y27" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796353</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796353</v>
       </c>
       <c r="C28" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796353</v>
       </c>
       <c r="D28" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796353</v>
       </c>
       <c r="E28" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796353</v>
       </c>
       <c r="F28" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796353</v>
       </c>
       <c r="G28" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796353</v>
       </c>
       <c r="H28" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796353</v>
       </c>
       <c r="I28" t="n">
-        <v>110.8882733190883</v>
+        <v>38.92724807796353</v>
       </c>
       <c r="J28" t="n">
-        <v>110.8882733190883</v>
+        <v>38.92724807796353</v>
       </c>
       <c r="K28" t="n">
-        <v>291.1130727383214</v>
+        <v>38.92724807796353</v>
       </c>
       <c r="L28" t="n">
-        <v>291.1130727383214</v>
+        <v>168.4017773575061</v>
       </c>
       <c r="M28" t="n">
-        <v>291.1130727383214</v>
+        <v>168.4017773575061</v>
       </c>
       <c r="N28" t="n">
-        <v>291.1130727383214</v>
+        <v>168.4017773575061</v>
       </c>
       <c r="O28" t="n">
-        <v>291.1130727383214</v>
+        <v>168.4017773575061</v>
       </c>
       <c r="P28" t="n">
-        <v>291.1130727383214</v>
+        <v>168.4017773575061</v>
       </c>
       <c r="Q28" t="n">
-        <v>291.1130727383214</v>
+        <v>289.9068133957406</v>
       </c>
       <c r="R28" t="n">
-        <v>291.1130727383214</v>
+        <v>289.9068133957406</v>
       </c>
       <c r="S28" t="n">
-        <v>291.1130727383214</v>
+        <v>291.1130727383219</v>
       </c>
       <c r="T28" t="n">
-        <v>270.0818963479595</v>
+        <v>270.0818963479599</v>
       </c>
       <c r="U28" t="n">
-        <v>194.1439049424272</v>
+        <v>194.1439049424276</v>
       </c>
       <c r="V28" t="n">
-        <v>144.6492684938652</v>
+        <v>144.6492684938655</v>
       </c>
       <c r="W28" t="n">
-        <v>69.73353500427979</v>
+        <v>69.73353500428</v>
       </c>
       <c r="X28" t="n">
-        <v>49.72173889267097</v>
+        <v>49.72173889267111</v>
       </c>
       <c r="Y28" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796353</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1078.782752367162</v>
+        <v>1078.782752367163</v>
       </c>
       <c r="C29" t="n">
-        <v>908.0896616929851</v>
+        <v>908.0896616929854</v>
       </c>
       <c r="D29" t="n">
-        <v>746.5063649132242</v>
+        <v>746.5063649132244</v>
       </c>
       <c r="E29" t="n">
-        <v>562.9613130123464</v>
+        <v>562.9613130123466</v>
       </c>
       <c r="F29" t="n">
-        <v>360.0507903155321</v>
+        <v>360.0507903155324</v>
       </c>
       <c r="G29" t="n">
         <v>155.6607627868573</v>
@@ -6458,31 +6458,31 @@
         <v>38.92724807796348</v>
       </c>
       <c r="I29" t="n">
-        <v>94.46953606116432</v>
+        <v>38.92724807796348</v>
       </c>
       <c r="J29" t="n">
-        <v>195.2483166832096</v>
+        <v>357.3333724264677</v>
       </c>
       <c r="K29" t="n">
-        <v>676.9730116480075</v>
+        <v>790.3286267876465</v>
       </c>
       <c r="L29" t="n">
-        <v>1158.697706612806</v>
+        <v>1198.469769084675</v>
       </c>
       <c r="M29" t="n">
-        <v>1261.901891825267</v>
+        <v>1301.673954297136</v>
       </c>
       <c r="N29" t="n">
-        <v>1743.626586790065</v>
+        <v>1406.946735664929</v>
       </c>
       <c r="O29" t="n">
-        <v>1874.851927815286</v>
+        <v>1507.055768753464</v>
       </c>
       <c r="P29" t="n">
-        <v>1883.598309192657</v>
+        <v>1594.800156541625</v>
       </c>
       <c r="Q29" t="n">
-        <v>1883.598309192657</v>
+        <v>1946.362403898174</v>
       </c>
       <c r="R29" t="n">
         <v>1946.362403898174</v>
@@ -6494,16 +6494,16 @@
         <v>1935.315957080291</v>
       </c>
       <c r="U29" t="n">
-        <v>1891.70915206923</v>
+        <v>1891.709152069231</v>
       </c>
       <c r="V29" t="n">
-        <v>1765.970545958187</v>
+        <v>1765.970545958188</v>
       </c>
       <c r="W29" t="n">
         <v>1614.676283808804</v>
       </c>
       <c r="X29" t="n">
-        <v>1443.886811323312</v>
+        <v>1443.886811323313</v>
       </c>
       <c r="Y29" t="n">
         <v>1261.585623892166</v>
@@ -6555,10 +6555,10 @@
         <v>38.92724807796348</v>
       </c>
       <c r="O30" t="n">
-        <v>38.92724807796348</v>
+        <v>93.39486775166348</v>
       </c>
       <c r="P30" t="n">
-        <v>38.92724807796348</v>
+        <v>93.39486775166348</v>
       </c>
       <c r="Q30" t="n">
         <v>93.39486775166348</v>
@@ -6576,7 +6576,7 @@
         <v>86.15740341028862</v>
       </c>
       <c r="V30" t="n">
-        <v>69.00244885163801</v>
+        <v>69.00244885163802</v>
       </c>
       <c r="W30" t="n">
         <v>38.92724807796348</v>
@@ -6595,55 +6595,55 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.06160993035722</v>
+        <v>38.92724807796348</v>
       </c>
       <c r="C31" t="n">
-        <v>66.06160993035722</v>
+        <v>38.92724807796348</v>
       </c>
       <c r="D31" t="n">
-        <v>66.06160993035722</v>
+        <v>38.92724807796348</v>
       </c>
       <c r="E31" t="n">
-        <v>124.1145537749802</v>
+        <v>38.92724807796348</v>
       </c>
       <c r="F31" t="n">
-        <v>124.1145537749802</v>
+        <v>38.92724807796348</v>
       </c>
       <c r="G31" t="n">
-        <v>124.1145537749802</v>
+        <v>38.92724807796348</v>
       </c>
       <c r="H31" t="n">
-        <v>163.6763404908058</v>
+        <v>91.61309310009975</v>
       </c>
       <c r="I31" t="n">
-        <v>163.6763404908058</v>
+        <v>91.61309310009975</v>
       </c>
       <c r="J31" t="n">
-        <v>163.6763404908058</v>
+        <v>91.61309310009975</v>
       </c>
       <c r="K31" t="n">
-        <v>291.1130727383214</v>
+        <v>91.61309310009975</v>
       </c>
       <c r="L31" t="n">
-        <v>291.1130727383214</v>
+        <v>91.61309310009975</v>
       </c>
       <c r="M31" t="n">
-        <v>291.1130727383214</v>
+        <v>91.61309310009975</v>
       </c>
       <c r="N31" t="n">
-        <v>291.1130727383214</v>
+        <v>289.90681339574</v>
       </c>
       <c r="O31" t="n">
-        <v>291.1130727383214</v>
+        <v>289.90681339574</v>
       </c>
       <c r="P31" t="n">
-        <v>291.1130727383214</v>
+        <v>289.90681339574</v>
       </c>
       <c r="Q31" t="n">
-        <v>291.1130727383214</v>
+        <v>289.90681339574</v>
       </c>
       <c r="R31" t="n">
-        <v>291.1130727383214</v>
+        <v>289.90681339574</v>
       </c>
       <c r="S31" t="n">
         <v>291.1130727383214</v>
@@ -6658,10 +6658,10 @@
         <v>144.6492684938652</v>
       </c>
       <c r="W31" t="n">
-        <v>69.73353500427977</v>
+        <v>69.73353500427979</v>
       </c>
       <c r="X31" t="n">
-        <v>49.72173889267096</v>
+        <v>49.72173889267097</v>
       </c>
       <c r="Y31" t="n">
         <v>38.92724807796348</v>
@@ -6677,49 +6677,49 @@
         <v>1078.782752367163</v>
       </c>
       <c r="C32" t="n">
-        <v>908.0896616929858</v>
+        <v>908.0896616929854</v>
       </c>
       <c r="D32" t="n">
-        <v>746.506364913225</v>
+        <v>746.5063649132244</v>
       </c>
       <c r="E32" t="n">
-        <v>562.9613130123473</v>
+        <v>562.9613130123466</v>
       </c>
       <c r="F32" t="n">
-        <v>360.0507903155333</v>
+        <v>360.0507903155324</v>
       </c>
       <c r="G32" t="n">
-        <v>155.6607627868572</v>
+        <v>155.6607627868573</v>
       </c>
       <c r="H32" t="n">
         <v>38.92724807796348</v>
       </c>
       <c r="I32" t="n">
-        <v>94.46953606116446</v>
+        <v>94.46953606116432</v>
       </c>
       <c r="J32" t="n">
-        <v>94.46953606116446</v>
+        <v>412.8756604096685</v>
       </c>
       <c r="K32" t="n">
-        <v>155.6818422191202</v>
+        <v>894.6003553744665</v>
       </c>
       <c r="L32" t="n">
-        <v>637.4065371839182</v>
+        <v>1022.382152613067</v>
       </c>
       <c r="M32" t="n">
-        <v>740.61072239638</v>
+        <v>1022.382152613067</v>
       </c>
       <c r="N32" t="n">
-        <v>1201.712016782441</v>
+        <v>1127.65493398086</v>
       </c>
       <c r="O32" t="n">
-        <v>1683.43671174724</v>
+        <v>1609.379628945658</v>
       </c>
       <c r="P32" t="n">
-        <v>1771.181099535401</v>
+        <v>1697.124016733819</v>
       </c>
       <c r="Q32" t="n">
-        <v>1849.493953912652</v>
+        <v>1764.916921536124</v>
       </c>
       <c r="R32" t="n">
         <v>1912.258048618169</v>
@@ -6765,55 +6765,55 @@
         <v>38.92724807796348</v>
       </c>
       <c r="F33" t="n">
-        <v>38.92724807796348</v>
+        <v>93.39486775166348</v>
       </c>
       <c r="G33" t="n">
-        <v>38.92724807796348</v>
+        <v>93.39486775166348</v>
       </c>
       <c r="H33" t="n">
-        <v>38.92724807796348</v>
+        <v>93.39486775166348</v>
       </c>
       <c r="I33" t="n">
-        <v>38.92724807796348</v>
+        <v>93.39486775166348</v>
       </c>
       <c r="J33" t="n">
-        <v>38.92724807796348</v>
+        <v>93.39486775166348</v>
       </c>
       <c r="K33" t="n">
-        <v>38.92724807796348</v>
+        <v>93.39486775166348</v>
       </c>
       <c r="L33" t="n">
-        <v>38.92724807796348</v>
+        <v>93.39486775166348</v>
       </c>
       <c r="M33" t="n">
-        <v>38.92724807796348</v>
+        <v>93.39486775166348</v>
       </c>
       <c r="N33" t="n">
-        <v>93.39486775166304</v>
+        <v>93.39486775166348</v>
       </c>
       <c r="O33" t="n">
-        <v>93.39486775166304</v>
+        <v>93.39486775166348</v>
       </c>
       <c r="P33" t="n">
-        <v>93.39486775166304</v>
+        <v>93.39486775166348</v>
       </c>
       <c r="Q33" t="n">
-        <v>93.39486775166304</v>
+        <v>93.39486775166348</v>
       </c>
       <c r="R33" t="n">
-        <v>93.39486775166304</v>
+        <v>93.39486775166348</v>
       </c>
       <c r="S33" t="n">
-        <v>93.39486775166304</v>
+        <v>93.39486775166348</v>
       </c>
       <c r="T33" t="n">
-        <v>93.39486775166304</v>
+        <v>93.39486775166348</v>
       </c>
       <c r="U33" t="n">
-        <v>86.15740341028832</v>
+        <v>86.15740341028862</v>
       </c>
       <c r="V33" t="n">
-        <v>69.00244885163787</v>
+        <v>69.00244885163802</v>
       </c>
       <c r="W33" t="n">
         <v>38.92724807796348</v>
@@ -6847,58 +6847,58 @@
         <v>38.92724807796348</v>
       </c>
       <c r="G34" t="n">
-        <v>80.61405839235326</v>
+        <v>38.92724807796348</v>
       </c>
       <c r="H34" t="n">
-        <v>80.61405839235326</v>
+        <v>38.92724807796348</v>
       </c>
       <c r="I34" t="n">
-        <v>80.61405839235326</v>
+        <v>38.92724807796348</v>
       </c>
       <c r="J34" t="n">
-        <v>163.207466945293</v>
+        <v>38.92724807796348</v>
       </c>
       <c r="K34" t="n">
-        <v>163.207466945293</v>
+        <v>38.92724807796348</v>
       </c>
       <c r="L34" t="n">
-        <v>163.207466945293</v>
+        <v>38.92724807796348</v>
       </c>
       <c r="M34" t="n">
-        <v>291.1130727383205</v>
+        <v>38.92724807796348</v>
       </c>
       <c r="N34" t="n">
-        <v>291.1130727383205</v>
+        <v>164.8300395000153</v>
       </c>
       <c r="O34" t="n">
-        <v>291.1130727383205</v>
+        <v>289.90681339574</v>
       </c>
       <c r="P34" t="n">
-        <v>291.1130727383205</v>
+        <v>289.90681339574</v>
       </c>
       <c r="Q34" t="n">
-        <v>291.1130727383205</v>
+        <v>289.90681339574</v>
       </c>
       <c r="R34" t="n">
-        <v>291.1130727383205</v>
+        <v>289.90681339574</v>
       </c>
       <c r="S34" t="n">
-        <v>291.1130727383205</v>
+        <v>291.1130727383214</v>
       </c>
       <c r="T34" t="n">
-        <v>270.0818963479587</v>
+        <v>270.0818963479595</v>
       </c>
       <c r="U34" t="n">
-        <v>194.1439049424266</v>
+        <v>194.1439049424272</v>
       </c>
       <c r="V34" t="n">
-        <v>144.6492684938648</v>
+        <v>144.6492684938652</v>
       </c>
       <c r="W34" t="n">
-        <v>69.73353500427949</v>
+        <v>69.73353500427979</v>
       </c>
       <c r="X34" t="n">
-        <v>49.72173889267082</v>
+        <v>49.72173889267097</v>
       </c>
       <c r="Y34" t="n">
         <v>38.92724807796348</v>
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>815.7962375133425</v>
+        <v>815.7962375133427</v>
       </c>
       <c r="C35" t="n">
-        <v>687.1792670385747</v>
+        <v>687.1792670385749</v>
       </c>
       <c r="D35" t="n">
-        <v>567.6720904582231</v>
+        <v>567.6720904582235</v>
       </c>
       <c r="E35" t="n">
-        <v>426.2031587567548</v>
+        <v>426.2031587567552</v>
       </c>
       <c r="F35" t="n">
-        <v>265.36875625935</v>
+        <v>265.3687562593505</v>
       </c>
       <c r="G35" t="n">
-        <v>103.0548489300848</v>
+        <v>103.0548489300846</v>
       </c>
       <c r="H35" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="I35" t="n">
-        <v>125.1785478112423</v>
+        <v>125.1785478112425</v>
       </c>
       <c r="J35" t="n">
-        <v>267.1961338407287</v>
+        <v>267.1961338407291</v>
       </c>
       <c r="K35" t="n">
-        <v>397.4434697004975</v>
+        <v>397.4434697004981</v>
       </c>
       <c r="L35" t="n">
-        <v>529.2772084769679</v>
+        <v>529.2772084769686</v>
       </c>
       <c r="M35" t="n">
-        <v>673.7201990968717</v>
+        <v>673.7201990968715</v>
       </c>
       <c r="N35" t="n">
-        <v>820.2317858721052</v>
+        <v>820.2317858721051</v>
       </c>
       <c r="O35" t="n">
         <v>961.5796243680818</v>
@@ -6962,13 +6962,13 @@
         <v>1314.117377461335</v>
       </c>
       <c r="S35" t="n">
-        <v>1389.46053814878</v>
+        <v>1389.460538148781</v>
       </c>
       <c r="T35" t="n">
         <v>1419.872721030015</v>
       </c>
       <c r="U35" t="n">
-        <v>1418.342036218364</v>
+        <v>1418.342036218363</v>
       </c>
       <c r="V35" t="n">
         <v>1334.67955030673</v>
@@ -6980,7 +6980,7 @@
         <v>1096.748056070674</v>
       </c>
       <c r="Y35" t="n">
-        <v>956.5229888389367</v>
+        <v>956.522988838937</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="C36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="D36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="E36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="F36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="G36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="H36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="I36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="J36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="K36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="L36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="M36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="N36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="O36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="P36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="R36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="S36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="T36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="U36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="V36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="W36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="X36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="Y36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="C37" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="D37" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="E37" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="F37" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="G37" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="H37" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="I37" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="J37" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="K37" t="n">
-        <v>102.5174551660518</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="L37" t="n">
-        <v>102.5174551660518</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="M37" t="n">
-        <v>102.5174551660518</v>
+        <v>60.07239041602874</v>
       </c>
       <c r="N37" t="n">
-        <v>102.5174551660518</v>
+        <v>60.07239041602874</v>
       </c>
       <c r="O37" t="n">
-        <v>102.5174551660518</v>
+        <v>60.07239041602874</v>
       </c>
       <c r="P37" t="n">
-        <v>102.5174551660518</v>
+        <v>60.07239041602874</v>
       </c>
       <c r="Q37" t="n">
-        <v>102.5174551660518</v>
+        <v>60.07239041602874</v>
       </c>
       <c r="R37" t="n">
-        <v>102.5174551660518</v>
+        <v>60.07239041602874</v>
       </c>
       <c r="S37" t="n">
-        <v>102.5174551660518</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="T37" t="n">
-        <v>102.5174551660518</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="U37" t="n">
-        <v>68.65558395992893</v>
+        <v>68.65558395992872</v>
       </c>
       <c r="V37" t="n">
-        <v>61.23706771077636</v>
+        <v>61.23706771077626</v>
       </c>
       <c r="W37" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="X37" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>815.7962375133434</v>
+        <v>815.7962375133427</v>
       </c>
       <c r="C38" t="n">
-        <v>687.1792670385755</v>
+        <v>687.1792670385749</v>
       </c>
       <c r="D38" t="n">
-        <v>567.6720904582239</v>
+        <v>567.6720904582235</v>
       </c>
       <c r="E38" t="n">
-        <v>426.2031587567556</v>
+        <v>426.2031587567552</v>
       </c>
       <c r="F38" t="n">
-        <v>265.3687562593507</v>
+        <v>265.3687562593505</v>
       </c>
       <c r="G38" t="n">
-        <v>103.0548489300847</v>
+        <v>103.0548489300846</v>
       </c>
       <c r="H38" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="I38" t="n">
-        <v>125.1785478112423</v>
+        <v>125.1785478112424</v>
       </c>
       <c r="J38" t="n">
-        <v>267.1961338407287</v>
+        <v>267.196133840729</v>
       </c>
       <c r="K38" t="n">
-        <v>397.4434697004975</v>
+        <v>397.443469700498</v>
       </c>
       <c r="L38" t="n">
-        <v>529.2772084769679</v>
+        <v>529.2772084769686</v>
       </c>
       <c r="M38" t="n">
-        <v>673.7201990968707</v>
+        <v>673.7201990968715</v>
       </c>
       <c r="N38" t="n">
-        <v>820.2317858721042</v>
+        <v>820.2317858721051</v>
       </c>
       <c r="O38" t="n">
-        <v>961.5796243680834</v>
+        <v>961.5796243680819</v>
       </c>
       <c r="P38" t="n">
-        <v>1090.562817563686</v>
+        <v>1090.562817563684</v>
       </c>
       <c r="Q38" t="n">
-        <v>1210.114477348378</v>
+        <v>1210.114477348377</v>
       </c>
       <c r="R38" t="n">
-        <v>1314.117377461336</v>
+        <v>1314.117377461334</v>
       </c>
       <c r="S38" t="n">
-        <v>1389.460538148782</v>
+        <v>1389.46053814878</v>
       </c>
       <c r="T38" t="n">
-        <v>1419.872721030016</v>
+        <v>1419.872721030015</v>
       </c>
       <c r="U38" t="n">
-        <v>1418.342036218365</v>
+        <v>1418.342036218364</v>
       </c>
       <c r="V38" t="n">
-        <v>1334.679550306731</v>
+        <v>1334.67955030673</v>
       </c>
       <c r="W38" t="n">
-        <v>1225.461408356757</v>
+        <v>1225.461408356756</v>
       </c>
       <c r="X38" t="n">
-        <v>1096.748056070675</v>
+        <v>1096.748056070674</v>
       </c>
       <c r="Y38" t="n">
-        <v>956.5229888389377</v>
+        <v>956.522988838937</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="C39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="D39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="E39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="F39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="G39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="H39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="I39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="J39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="K39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="L39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="M39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="N39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="O39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="P39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="R39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="S39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="T39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="U39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="V39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="W39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="X39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="Y39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>50.02269845905365</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="C40" t="n">
-        <v>50.02269845905365</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="D40" t="n">
-        <v>50.02269845905365</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="E40" t="n">
-        <v>50.02269845905365</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="F40" t="n">
-        <v>50.02269845905365</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="G40" t="n">
-        <v>50.02269845905365</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="H40" t="n">
-        <v>50.02269845905365</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="I40" t="n">
-        <v>50.02269845905365</v>
+        <v>60.07239041602874</v>
       </c>
       <c r="J40" t="n">
-        <v>50.02269845905365</v>
+        <v>60.07239041602874</v>
       </c>
       <c r="K40" t="n">
-        <v>102.5174551660518</v>
+        <v>60.07239041602874</v>
       </c>
       <c r="L40" t="n">
-        <v>102.5174551660518</v>
+        <v>60.07239041602874</v>
       </c>
       <c r="M40" t="n">
-        <v>102.5174551660518</v>
+        <v>60.07239041602874</v>
       </c>
       <c r="N40" t="n">
-        <v>102.5174551660518</v>
+        <v>60.07239041602874</v>
       </c>
       <c r="O40" t="n">
-        <v>102.5174551660518</v>
+        <v>60.07239041602874</v>
       </c>
       <c r="P40" t="n">
-        <v>102.5174551660518</v>
+        <v>60.07239041602874</v>
       </c>
       <c r="Q40" t="n">
-        <v>102.5174551660518</v>
+        <v>60.07239041602874</v>
       </c>
       <c r="R40" t="n">
-        <v>102.5174551660518</v>
+        <v>60.07239041602874</v>
       </c>
       <c r="S40" t="n">
-        <v>102.5174551660518</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="T40" t="n">
-        <v>102.5174551660518</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="U40" t="n">
-        <v>68.65558395992893</v>
+        <v>68.65558395992872</v>
       </c>
       <c r="V40" t="n">
-        <v>61.23706771077636</v>
+        <v>61.23706771077626</v>
       </c>
       <c r="W40" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="X40" t="n">
-        <v>50.02269845905365</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="Y40" t="n">
-        <v>50.02269845905365</v>
+        <v>28.39745442060031</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>815.7962375133428</v>
+        <v>815.7962375133429</v>
       </c>
       <c r="C41" t="n">
-        <v>687.1792670385751</v>
+        <v>687.1792670385749</v>
       </c>
       <c r="D41" t="n">
         <v>567.6720904582235</v>
       </c>
       <c r="E41" t="n">
-        <v>426.2031587567552</v>
+        <v>426.2031587567551</v>
       </c>
       <c r="F41" t="n">
         <v>265.3687562593504</v>
@@ -7403,46 +7403,46 @@
         <v>103.0548489300847</v>
       </c>
       <c r="H41" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="I41" t="n">
         <v>125.1785478112423</v>
       </c>
       <c r="J41" t="n">
-        <v>267.1961338407287</v>
+        <v>267.1961338407288</v>
       </c>
       <c r="K41" t="n">
-        <v>397.4434697004976</v>
+        <v>397.4434697004977</v>
       </c>
       <c r="L41" t="n">
-        <v>529.2772084769681</v>
+        <v>529.2772084769693</v>
       </c>
       <c r="M41" t="n">
-        <v>673.7201990968708</v>
+        <v>673.7201990968722</v>
       </c>
       <c r="N41" t="n">
-        <v>820.2317858721043</v>
+        <v>820.2317858721057</v>
       </c>
       <c r="O41" t="n">
-        <v>961.579624368081</v>
+        <v>961.5796243680824</v>
       </c>
       <c r="P41" t="n">
-        <v>1090.562817563684</v>
+        <v>1090.562817563685</v>
       </c>
       <c r="Q41" t="n">
-        <v>1210.114477348376</v>
+        <v>1210.114477348377</v>
       </c>
       <c r="R41" t="n">
-        <v>1314.117377461334</v>
+        <v>1314.117377461335</v>
       </c>
       <c r="S41" t="n">
-        <v>1389.46053814878</v>
+        <v>1389.460538148781</v>
       </c>
       <c r="T41" t="n">
         <v>1419.872721030015</v>
       </c>
       <c r="U41" t="n">
-        <v>1418.342036218363</v>
+        <v>1418.342036218364</v>
       </c>
       <c r="V41" t="n">
         <v>1334.67955030673</v>
@@ -7454,7 +7454,7 @@
         <v>1096.748056070674</v>
       </c>
       <c r="Y41" t="n">
-        <v>956.5229888389371</v>
+        <v>956.5229888389372</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="C42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="D42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="E42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="F42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="G42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="H42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="I42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="J42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="K42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="L42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="M42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="N42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="O42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="P42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="R42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="S42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="T42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="U42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="V42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="W42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="X42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="Y42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>59.05657938054669</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="C43" t="n">
-        <v>59.05657938054669</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="D43" t="n">
-        <v>59.05657938054669</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="E43" t="n">
-        <v>59.05657938054669</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="F43" t="n">
-        <v>59.05657938054669</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="G43" t="n">
-        <v>59.05657938054669</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="H43" t="n">
-        <v>59.05657938054669</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="I43" t="n">
-        <v>102.5174551660516</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="J43" t="n">
-        <v>102.5174551660516</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="K43" t="n">
-        <v>102.5174551660516</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="L43" t="n">
-        <v>102.5174551660516</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="M43" t="n">
-        <v>102.5174551660516</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="N43" t="n">
-        <v>102.5174551660516</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="O43" t="n">
-        <v>102.5174551660516</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="P43" t="n">
-        <v>102.5174551660516</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="Q43" t="n">
-        <v>102.5174551660516</v>
+        <v>81.89130573880425</v>
       </c>
       <c r="R43" t="n">
-        <v>102.5174551660516</v>
+        <v>81.89130573880425</v>
       </c>
       <c r="S43" t="n">
-        <v>102.5174551660516</v>
+        <v>81.89130573880425</v>
       </c>
       <c r="T43" t="n">
-        <v>102.5174551660516</v>
+        <v>102.5174551660517</v>
       </c>
       <c r="U43" t="n">
-        <v>68.65558395992882</v>
+        <v>68.65558395992889</v>
       </c>
       <c r="V43" t="n">
-        <v>61.2370677107763</v>
+        <v>61.23706771077634</v>
       </c>
       <c r="W43" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="X43" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="Y43" t="n">
-        <v>59.05657938054669</v>
+        <v>28.39745442060031</v>
       </c>
     </row>
     <row r="44">
@@ -7622,49 +7622,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>815.7962375133426</v>
+        <v>815.7962375133427</v>
       </c>
       <c r="C44" t="n">
         <v>687.1792670385748</v>
       </c>
       <c r="D44" t="n">
-        <v>567.6720904582237</v>
+        <v>567.6720904582235</v>
       </c>
       <c r="E44" t="n">
-        <v>426.2031587567553</v>
+        <v>426.2031587567549</v>
       </c>
       <c r="F44" t="n">
-        <v>265.3687562593506</v>
+        <v>265.36875625935</v>
       </c>
       <c r="G44" t="n">
-        <v>103.0548489300847</v>
+        <v>103.0548489300848</v>
       </c>
       <c r="H44" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="I44" t="n">
         <v>125.1785478112423</v>
       </c>
       <c r="J44" t="n">
-        <v>267.1961338407288</v>
+        <v>267.1961338407286</v>
       </c>
       <c r="K44" t="n">
-        <v>397.4434697004976</v>
+        <v>397.4434697004974</v>
       </c>
       <c r="L44" t="n">
-        <v>529.2772084769687</v>
+        <v>529.2772084769678</v>
       </c>
       <c r="M44" t="n">
-        <v>673.7201990968715</v>
+        <v>673.7201990968706</v>
       </c>
       <c r="N44" t="n">
-        <v>820.231785872105</v>
+        <v>820.2317858721041</v>
       </c>
       <c r="O44" t="n">
-        <v>961.5796243680817</v>
+        <v>961.5796243680807</v>
       </c>
       <c r="P44" t="n">
-        <v>1090.562817563684</v>
+        <v>1090.562817563685</v>
       </c>
       <c r="Q44" t="n">
         <v>1210.114477348377</v>
@@ -7673,7 +7673,7 @@
         <v>1314.117377461335</v>
       </c>
       <c r="S44" t="n">
-        <v>1389.46053814878</v>
+        <v>1389.460538148781</v>
       </c>
       <c r="T44" t="n">
         <v>1419.872721030015</v>
@@ -7691,7 +7691,7 @@
         <v>1096.748056070674</v>
       </c>
       <c r="Y44" t="n">
-        <v>956.5229888389368</v>
+        <v>956.5229888389371</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="C45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="D45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="E45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="F45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="G45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="H45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="I45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="J45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="K45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="L45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="M45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="N45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="O45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="P45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="R45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="S45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="T45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="U45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="V45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="W45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="X45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="Y45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="C46" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="D46" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="E46" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="F46" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="G46" t="n">
-        <v>102.5174551660516</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="H46" t="n">
-        <v>102.5174551660516</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="I46" t="n">
-        <v>102.5174551660516</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="J46" t="n">
-        <v>102.5174551660516</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="K46" t="n">
-        <v>102.5174551660516</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="L46" t="n">
-        <v>102.5174551660516</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="M46" t="n">
-        <v>102.5174551660516</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="N46" t="n">
-        <v>102.5174551660516</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="O46" t="n">
-        <v>102.5174551660516</v>
+        <v>102.5174551660519</v>
       </c>
       <c r="P46" t="n">
-        <v>102.5174551660516</v>
+        <v>102.5174551660519</v>
       </c>
       <c r="Q46" t="n">
-        <v>102.5174551660516</v>
+        <v>102.5174551660519</v>
       </c>
       <c r="R46" t="n">
-        <v>102.5174551660516</v>
+        <v>102.5174551660519</v>
       </c>
       <c r="S46" t="n">
-        <v>102.5174551660516</v>
+        <v>102.5174551660519</v>
       </c>
       <c r="T46" t="n">
-        <v>102.5174551660516</v>
+        <v>102.5174551660519</v>
       </c>
       <c r="U46" t="n">
-        <v>68.65558395992882</v>
+        <v>68.65558395992906</v>
       </c>
       <c r="V46" t="n">
-        <v>61.2370677107763</v>
+        <v>61.23706771077643</v>
       </c>
       <c r="W46" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="X46" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.39745442060029</v>
+        <v>28.39745442060031</v>
       </c>
     </row>
   </sheetData>
@@ -9878,25 +9878,25 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>395.0805672684534</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>380.2544581787944</v>
       </c>
       <c r="O26" t="n">
-        <v>176.1087000110192</v>
+        <v>483.8406850800118</v>
       </c>
       <c r="P26" t="n">
-        <v>397.9599062390272</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q26" t="n">
-        <v>276.0094878578761</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,10 +9951,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>79.36985402649259</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>71.5135051140094</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>60.98136935834785</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10033,7 +10033,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>53.32127997143186</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -10045,13 +10045,13 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>82.78808566083806</v>
+        <v>82.78808566083805</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.9458458910769</v>
+        <v>19.10228369044432</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K29" t="n">
-        <v>396.6829944570408</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L29" t="n">
-        <v>542.9595789155856</v>
+        <v>320.7537463919181</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>380.2544581787937</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>31.43061407746018</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>81.73346793160955</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10267,19 +10267,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>78.34590850546637</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>79.93067970396672</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>62.74980557941254</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -10346,22 +10346,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>396.6829944570408</v>
       </c>
       <c r="L32" t="n">
-        <v>395.0805672684532</v>
+        <v>246.6907500702283</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>568.5510017355793</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>385.4703655315782</v>
+        <v>385.4703655315784</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>33.74432739056951</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10510,22 +10510,22 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>78.34590850546634</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>198.7559165151357</v>
       </c>
       <c r="O34" t="n">
-        <v>82.78808566083806</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.9458458910769</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>2.614797267597169e-12</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>-7.531752999057062e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>5.968558980384842e-13</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>170.0388604600498</v>
+        <v>38.41643974301005</v>
       </c>
       <c r="C11" t="n">
-        <v>56.27472084459831</v>
+        <v>158.0501774177315</v>
       </c>
       <c r="D11" t="n">
-        <v>149.0314814622595</v>
+        <v>149.0314814622594</v>
       </c>
       <c r="E11" t="n">
         <v>170.773619032165</v>
@@ -23270,7 +23270,7 @@
         <v>189.9454351201422</v>
       </c>
       <c r="G11" t="n">
-        <v>59.78772418664488</v>
+        <v>191.4101449036847</v>
       </c>
       <c r="H11" t="n">
         <v>104.630197212101</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>29.84696414390662</v>
       </c>
       <c r="W11" t="n">
-        <v>7.222916461145985</v>
+        <v>7.22291646114607</v>
       </c>
       <c r="X11" t="n">
         <v>158.1455954109324</v>
       </c>
       <c r="Y11" t="n">
-        <v>169.5421932071312</v>
+        <v>37.91977249009145</v>
       </c>
     </row>
     <row r="12">
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>170.0388604600498</v>
+        <v>38.41643974301005</v>
       </c>
       <c r="C14" t="n">
         <v>158.0501774177315</v>
       </c>
       <c r="D14" t="n">
-        <v>17.40906074521968</v>
+        <v>20.26380138418767</v>
       </c>
       <c r="E14" t="n">
         <v>170.773619032165</v>
@@ -23507,7 +23507,7 @@
         <v>189.9454351201422</v>
       </c>
       <c r="G14" t="n">
-        <v>59.78772418664488</v>
+        <v>191.4101449036847</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>2.854740638967755</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>138.8453371781858</v>
@@ -23561,7 +23561,7 @@
         <v>158.1455954109324</v>
       </c>
       <c r="Y14" t="n">
-        <v>169.5421932071312</v>
+        <v>169.5421932071311</v>
       </c>
     </row>
     <row r="15">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>819310.3458633716</v>
+        <v>819310.3458633719</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>819310.3458633714</v>
+        <v>819310.3458633716</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>748433.4589818273</v>
+        <v>748433.4589818271</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>748433.4589818271</v>
+        <v>748433.4589818273</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>748433.4589818271</v>
+        <v>748433.4589818273</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>593554.389418161</v>
+        <v>593554.3894181609</v>
       </c>
       <c r="C2" t="n">
-        <v>593554.3894181608</v>
+        <v>593554.3894181609</v>
       </c>
       <c r="D2" t="n">
         <v>593554.389418161</v>
@@ -26323,37 +26323,37 @@
         <v>518697.2685428198</v>
       </c>
       <c r="F2" t="n">
-        <v>518697.2685428198</v>
+        <v>518697.2685428199</v>
       </c>
       <c r="G2" t="n">
+        <v>594908.6468829911</v>
+      </c>
+      <c r="H2" t="n">
         <v>594908.646882991</v>
       </c>
-      <c r="H2" t="n">
-        <v>594908.6468829908</v>
-      </c>
       <c r="I2" t="n">
-        <v>594908.6468829907</v>
+        <v>594908.6468829911</v>
       </c>
       <c r="J2" t="n">
         <v>594908.6468829906</v>
       </c>
       <c r="K2" t="n">
-        <v>594908.64688299</v>
+        <v>594908.6468829905</v>
       </c>
       <c r="L2" t="n">
-        <v>594908.6468829906</v>
+        <v>594908.6468829911</v>
       </c>
       <c r="M2" t="n">
-        <v>594908.6468829912</v>
+        <v>594908.6468829907</v>
       </c>
       <c r="N2" t="n">
         <v>594908.6468829912</v>
       </c>
       <c r="O2" t="n">
-        <v>594908.646882991</v>
+        <v>594908.6468829911</v>
       </c>
       <c r="P2" t="n">
-        <v>594908.646882991</v>
+        <v>594908.6468829914</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>308990.6514115119</v>
+        <v>308990.651411512</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>87882.22332590586</v>
+        <v>87882.22332590578</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172295.6802798567</v>
+        <v>172295.6802798568</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>87882.22332590597</v>
+        <v>87882.22332590578</v>
       </c>
       <c r="M3" t="n">
-        <v>33324.28719793213</v>
+        <v>33324.28719793238</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>79420.38572456239</v>
+        <v>79420.38572456226</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>437137.1652114342</v>
       </c>
       <c r="E4" t="n">
-        <v>341966.2726892945</v>
+        <v>341966.2726892944</v>
       </c>
       <c r="F4" t="n">
-        <v>341966.2726892945</v>
+        <v>341966.2726892944</v>
       </c>
       <c r="G4" t="n">
-        <v>398022.0726506228</v>
+        <v>398022.0726506227</v>
       </c>
       <c r="H4" t="n">
-        <v>398022.0726506228</v>
+        <v>398022.0726506227</v>
       </c>
       <c r="I4" t="n">
         <v>398022.0726506228</v>
       </c>
       <c r="J4" t="n">
-        <v>405719.4410900336</v>
+        <v>405719.4410900337</v>
       </c>
       <c r="K4" t="n">
         <v>405719.4410900336</v>
       </c>
       <c r="L4" t="n">
-        <v>405719.4410900337</v>
+        <v>405719.4410900336</v>
       </c>
       <c r="M4" t="n">
         <v>398950.3342181894</v>
       </c>
       <c r="N4" t="n">
+        <v>398950.3342181894</v>
+      </c>
+      <c r="O4" t="n">
         <v>398950.3342181895</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>398950.3342181894</v>
-      </c>
-      <c r="P4" t="n">
-        <v>398950.3342181895</v>
       </c>
     </row>
     <row r="5">
@@ -26482,28 +26482,28 @@
         <v>29044.09759212586</v>
       </c>
       <c r="G5" t="n">
-        <v>38279.31088310784</v>
+        <v>38279.31088310783</v>
       </c>
       <c r="H5" t="n">
-        <v>38279.31088310784</v>
+        <v>38279.31088310783</v>
       </c>
       <c r="I5" t="n">
-        <v>38279.31088310784</v>
+        <v>38279.31088310783</v>
       </c>
       <c r="J5" t="n">
-        <v>49706.78585162482</v>
+        <v>49706.78585162485</v>
       </c>
       <c r="K5" t="n">
         <v>49706.78585162482</v>
       </c>
       <c r="L5" t="n">
-        <v>49706.78585162484</v>
+        <v>49706.78585162482</v>
       </c>
       <c r="M5" t="n">
-        <v>45206.06704758252</v>
+        <v>45206.06704758253</v>
       </c>
       <c r="N5" t="n">
-        <v>45206.06704758252</v>
+        <v>45206.06704758253</v>
       </c>
       <c r="O5" t="n">
         <v>45206.06704758252</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>122789.6242067268</v>
+        <v>122785.2556342595</v>
       </c>
       <c r="C6" t="n">
-        <v>122789.6242067266</v>
+        <v>122785.2556342595</v>
       </c>
       <c r="D6" t="n">
-        <v>122789.6242067268</v>
+        <v>122785.2556342596</v>
       </c>
       <c r="E6" t="n">
-        <v>-161303.7531501124</v>
+        <v>-161549.5963060485</v>
       </c>
       <c r="F6" t="n">
-        <v>147686.8982613995</v>
+        <v>147441.0551054636</v>
       </c>
       <c r="G6" t="n">
-        <v>70725.04002335446</v>
+        <v>70725.04002335476</v>
       </c>
       <c r="H6" t="n">
-        <v>158607.2633492602</v>
+        <v>158607.2633492604</v>
       </c>
       <c r="I6" t="n">
-        <v>158607.2633492601</v>
+        <v>158607.2633492604</v>
       </c>
       <c r="J6" t="n">
-        <v>-32813.2603385245</v>
+        <v>-32813.26033852476</v>
       </c>
       <c r="K6" t="n">
-        <v>139482.4199413316</v>
+        <v>139482.4199413322</v>
       </c>
       <c r="L6" t="n">
-        <v>51600.19661542612</v>
+        <v>51600.19661542683</v>
       </c>
       <c r="M6" t="n">
-        <v>117427.9584192871</v>
+        <v>117427.9584192864</v>
       </c>
       <c r="N6" t="n">
         <v>150752.2456172192</v>
       </c>
       <c r="O6" t="n">
-        <v>71331.85989265663</v>
+        <v>71331.85989265679</v>
       </c>
       <c r="P6" t="n">
-        <v>150752.245617219</v>
+        <v>150752.2456172195</v>
       </c>
     </row>
   </sheetData>
@@ -26698,7 +26698,7 @@
         <v>220.0642436627892</v>
       </c>
       <c r="G2" t="n">
-        <v>329.9170228201715</v>
+        <v>329.9170228201714</v>
       </c>
       <c r="H2" t="n">
         <v>329.9170228201715</v>
@@ -26707,25 +26707,25 @@
         <v>329.9170228201715</v>
       </c>
       <c r="J2" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="K2" t="n">
         <v>209.1282613130853</v>
       </c>
       <c r="L2" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="M2" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="N2" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="O2" t="n">
         <v>250.7836203105006</v>
       </c>
       <c r="P2" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105005</v>
       </c>
     </row>
     <row r="3">
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>131.6224207170398</v>
+        <v>131.6224207170397</v>
       </c>
       <c r="F4" t="n">
-        <v>131.6224207170398</v>
+        <v>131.6224207170397</v>
       </c>
       <c r="G4" t="n">
-        <v>131.6224207170398</v>
+        <v>131.6224207170397</v>
       </c>
       <c r="H4" t="n">
-        <v>131.6224207170398</v>
+        <v>131.6224207170397</v>
       </c>
       <c r="I4" t="n">
-        <v>131.6224207170398</v>
+        <v>131.6224207170397</v>
       </c>
       <c r="J4" t="n">
-        <v>486.5906009745435</v>
+        <v>486.5906009745441</v>
       </c>
       <c r="K4" t="n">
         <v>486.5906009745435</v>
@@ -26820,16 +26820,16 @@
         <v>486.5906009745435</v>
       </c>
       <c r="M4" t="n">
-        <v>354.9681802575037</v>
+        <v>354.9681802575038</v>
       </c>
       <c r="N4" t="n">
-        <v>354.9681802575037</v>
+        <v>354.9681802575038</v>
       </c>
       <c r="O4" t="n">
-        <v>354.9681802575037</v>
+        <v>354.9681802575038</v>
       </c>
       <c r="P4" t="n">
-        <v>354.9681802575037</v>
+        <v>354.9681802575038</v>
       </c>
     </row>
   </sheetData>
@@ -26920,31 +26920,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>109.8527791573823</v>
+        <v>109.8527791573822</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>99.27548215570295</v>
+        <v>99.27548215570289</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>109.8527791573825</v>
+        <v>109.8527791573822</v>
       </c>
       <c r="M2" t="n">
-        <v>41.65535899741516</v>
+        <v>41.65535899741548</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>99.275482155703</v>
+        <v>99.27548215570283</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>131.6224207170398</v>
+        <v>131.6224207170397</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>354.9681802575037</v>
+        <v>354.9681802575045</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,19 +27157,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>109.8527791573823</v>
+        <v>109.8527791573822</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>99.27548215570295</v>
+        <v>99.27548215570289</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>131.6224207170398</v>
+        <v>131.6224207170397</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28111,34 +28111,34 @@
         <v>220.0642436627892</v>
       </c>
       <c r="J11" t="n">
-        <v>107.3315132100092</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="K11" t="n">
+        <v>119.2206547955825</v>
+      </c>
+      <c r="L11" t="n">
+        <v>157.3550283348403</v>
+      </c>
+      <c r="M11" t="n">
+        <v>104.881609583326</v>
+      </c>
+      <c r="N11" t="n">
+        <v>102.7921185173354</v>
+      </c>
+      <c r="O11" t="n">
         <v>220.0642436627892</v>
       </c>
-      <c r="L11" t="n">
-        <v>117.6182276069951</v>
-      </c>
-      <c r="M11" t="n">
+      <c r="P11" t="n">
         <v>220.0642436627892</v>
-      </c>
-      <c r="N11" t="n">
-        <v>131.1394377524788</v>
-      </c>
-      <c r="O11" t="n">
-        <v>108.0080258701202</v>
-      </c>
-      <c r="P11" t="n">
-        <v>120.4975665775689</v>
       </c>
       <c r="Q11" t="n">
         <v>220.0642436627892</v>
       </c>
       <c r="R11" t="n">
-        <v>220.0642436627892</v>
+        <v>145.7301858529672</v>
       </c>
       <c r="S11" t="n">
-        <v>220.0642436627892</v>
+        <v>174.6794175959089</v>
       </c>
       <c r="T11" t="n">
         <v>220.0642436627892</v>
@@ -28184,34 +28184,34 @@
         <v>127.1905142842246</v>
       </c>
       <c r="H12" t="n">
-        <v>96.51723797799073</v>
+        <v>96.51723797799072</v>
       </c>
       <c r="I12" t="n">
         <v>72.23035288210312</v>
       </c>
       <c r="J12" t="n">
-        <v>79.36985402649259</v>
+        <v>79.36985402649256</v>
       </c>
       <c r="K12" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400938</v>
       </c>
       <c r="L12" t="n">
-        <v>58.14149588130891</v>
+        <v>58.14149588130886</v>
       </c>
       <c r="M12" t="n">
-        <v>51.96206476056948</v>
+        <v>77.3532381914377</v>
       </c>
       <c r="N12" t="n">
-        <v>41.51206923517108</v>
+        <v>41.51206923517104</v>
       </c>
       <c r="O12" t="n">
-        <v>56.21137633839746</v>
+        <v>56.21137633839741</v>
       </c>
       <c r="P12" t="n">
-        <v>60.98136935834785</v>
+        <v>60.98136935834781</v>
       </c>
       <c r="Q12" t="n">
-        <v>81.73346793160958</v>
+        <v>81.73346793160955</v>
       </c>
       <c r="R12" t="n">
         <v>102.7991627330203</v>
@@ -28220,7 +28220,7 @@
         <v>146.6148367064899</v>
       </c>
       <c r="T12" t="n">
-        <v>211.178926504556</v>
+        <v>185.7877530736877</v>
       </c>
       <c r="U12" t="n">
         <v>216.2933510110464</v>
@@ -28254,7 +28254,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E13" t="n">
-        <v>150.4889240962943</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="F13" t="n">
         <v>150.9558484244806</v>
@@ -28263,7 +28263,7 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H13" t="n">
-        <v>155.9102360382002</v>
+        <v>155.9102360382001</v>
       </c>
       <c r="I13" t="n">
         <v>136.4403570291208</v>
@@ -28272,22 +28272,22 @@
         <v>88.32412184825276</v>
       </c>
       <c r="K13" t="n">
-        <v>80.40428934589778</v>
+        <v>80.40428934589777</v>
       </c>
       <c r="L13" t="n">
-        <v>134.7629824916959</v>
+        <v>78.34590850546634</v>
       </c>
       <c r="M13" t="n">
-        <v>79.93067970396672</v>
+        <v>198.394854840741</v>
       </c>
       <c r="N13" t="n">
-        <v>203.2038004422242</v>
+        <v>71.58137972518441</v>
       </c>
       <c r="O13" t="n">
-        <v>82.78808566083806</v>
+        <v>82.78808566083805</v>
       </c>
       <c r="P13" t="n">
-        <v>86.48380385827531</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q13" t="n">
         <v>105.4981853689493</v>
@@ -28351,28 +28351,28 @@
         <v>220.0642436627892</v>
       </c>
       <c r="K14" t="n">
-        <v>119.2206547955826</v>
+        <v>119.2206547955825</v>
       </c>
       <c r="L14" t="n">
+        <v>208.7783748854537</v>
+      </c>
+      <c r="M14" t="n">
         <v>220.0642436627892</v>
       </c>
-      <c r="M14" t="n">
-        <v>104.881609583326</v>
-      </c>
       <c r="N14" t="n">
-        <v>107.1222067342437</v>
+        <v>102.7921185173354</v>
       </c>
       <c r="O14" t="n">
         <v>220.0642436627892</v>
       </c>
       <c r="P14" t="n">
-        <v>220.0642436627892</v>
+        <v>120.4975665775688</v>
       </c>
       <c r="Q14" t="n">
         <v>220.0642436627892</v>
       </c>
       <c r="R14" t="n">
-        <v>145.7301858529673</v>
+        <v>145.7301858529672</v>
       </c>
       <c r="S14" t="n">
         <v>174.6794175959089</v>
@@ -28409,7 +28409,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
-        <v>137.45025063969</v>
+        <v>162.8414240705583</v>
       </c>
       <c r="E15" t="n">
         <v>145.5577298436975</v>
@@ -28421,34 +28421,34 @@
         <v>127.1905142842246</v>
       </c>
       <c r="H15" t="n">
-        <v>96.51723797799073</v>
+        <v>96.51723797799072</v>
       </c>
       <c r="I15" t="n">
-        <v>97.62152631297145</v>
+        <v>72.23035288210312</v>
       </c>
       <c r="J15" t="n">
-        <v>79.36985402649259</v>
+        <v>79.36985402649256</v>
       </c>
       <c r="K15" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400938</v>
       </c>
       <c r="L15" t="n">
-        <v>58.14149588130891</v>
+        <v>58.14149588130886</v>
       </c>
       <c r="M15" t="n">
-        <v>51.96206476056948</v>
+        <v>51.96206476056943</v>
       </c>
       <c r="N15" t="n">
-        <v>41.51206923517108</v>
+        <v>41.51206923517104</v>
       </c>
       <c r="O15" t="n">
-        <v>56.21137633839746</v>
+        <v>56.21137633839741</v>
       </c>
       <c r="P15" t="n">
-        <v>60.98136935834785</v>
+        <v>60.98136935834781</v>
       </c>
       <c r="Q15" t="n">
-        <v>81.73346793160958</v>
+        <v>81.73346793160955</v>
       </c>
       <c r="R15" t="n">
         <v>102.7991627330203</v>
@@ -28491,7 +28491,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E16" t="n">
-        <v>194.5021355092912</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F16" t="n">
         <v>150.9558484244806</v>
@@ -28500,7 +28500,7 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H16" t="n">
-        <v>155.9102360382002</v>
+        <v>155.9102360382001</v>
       </c>
       <c r="I16" t="n">
         <v>136.4403570291208</v>
@@ -28509,31 +28509,31 @@
         <v>88.32412184825276</v>
       </c>
       <c r="K16" t="n">
-        <v>212.0267100629376</v>
+        <v>80.40428934589777</v>
       </c>
       <c r="L16" t="n">
-        <v>78.34590850546637</v>
+        <v>78.34590850546634</v>
       </c>
       <c r="M16" t="n">
-        <v>79.93067970396672</v>
+        <v>211.5531004210064</v>
       </c>
       <c r="N16" t="n">
-        <v>71.58137972518442</v>
+        <v>71.58137972518441</v>
       </c>
       <c r="O16" t="n">
-        <v>82.78808566083806</v>
+        <v>82.78808566083805</v>
       </c>
       <c r="P16" t="n">
-        <v>86.48380385827531</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q16" t="n">
         <v>105.4981853689493</v>
       </c>
       <c r="R16" t="n">
-        <v>138.576149682035</v>
+        <v>194.9932236682645</v>
       </c>
       <c r="S16" t="n">
-        <v>220.0642436627892</v>
+        <v>207.9098175327</v>
       </c>
       <c r="T16" t="n">
         <v>220.0642436627892</v>
@@ -28551,7 +28551,7 @@
         <v>220.0642436627892</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.0642436627892</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="17">
@@ -28561,76 +28561,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>329.9170228201715</v>
+        <v>329.9170228201714</v>
       </c>
       <c r="C17" t="n">
-        <v>329.9170228201715</v>
+        <v>329.9170228201714</v>
       </c>
       <c r="D17" t="n">
-        <v>329.9170228201715</v>
+        <v>329.9170228201714</v>
       </c>
       <c r="E17" t="n">
-        <v>329.9170228201715</v>
+        <v>329.9170228201714</v>
       </c>
       <c r="F17" t="n">
-        <v>329.9170228201715</v>
+        <v>329.9170228201714</v>
       </c>
       <c r="G17" t="n">
-        <v>329.9170228201715</v>
+        <v>329.9170228201714</v>
       </c>
       <c r="H17" t="n">
-        <v>329.9170228201715</v>
+        <v>329.9170228201714</v>
       </c>
       <c r="I17" t="n">
-        <v>284.6473608349727</v>
+        <v>153.0249401179329</v>
       </c>
       <c r="J17" t="n">
         <v>107.3315132100092</v>
       </c>
       <c r="K17" t="n">
-        <v>119.2206547955826</v>
+        <v>119.2206547955825</v>
       </c>
       <c r="L17" t="n">
-        <v>117.6182276069951</v>
+        <v>238.6999887740245</v>
       </c>
       <c r="M17" t="n">
-        <v>104.881609583326</v>
+        <v>236.5040303003656</v>
       </c>
       <c r="N17" t="n">
-        <v>102.7921185173355</v>
+        <v>234.4145392343751</v>
       </c>
       <c r="O17" t="n">
-        <v>108.0080258701202</v>
+        <v>108.0080258701201</v>
       </c>
       <c r="P17" t="n">
-        <v>252.1199872946087</v>
+        <v>120.4975665775688</v>
       </c>
       <c r="Q17" t="n">
-        <v>261.6467887197703</v>
+        <v>130.0243680027304</v>
       </c>
       <c r="R17" t="n">
-        <v>145.7301858529673</v>
+        <v>277.352606570007</v>
       </c>
       <c r="S17" t="n">
         <v>174.6794175959089</v>
       </c>
       <c r="T17" t="n">
-        <v>329.9170228201715</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="U17" t="n">
-        <v>263.5279802836828</v>
+        <v>252.2989982740355</v>
       </c>
       <c r="V17" t="n">
-        <v>329.9170228201715</v>
+        <v>329.9170228201714</v>
       </c>
       <c r="W17" t="n">
-        <v>329.9170228201715</v>
+        <v>329.9170228201714</v>
       </c>
       <c r="X17" t="n">
-        <v>329.9170228201715</v>
+        <v>329.9170228201714</v>
       </c>
       <c r="Y17" t="n">
-        <v>329.9170228201715</v>
+        <v>329.9170228201714</v>
       </c>
     </row>
     <row r="18">
@@ -28658,34 +28658,34 @@
         <v>127.1905142842246</v>
       </c>
       <c r="H18" t="n">
-        <v>96.51723797799073</v>
+        <v>96.51723797799072</v>
       </c>
       <c r="I18" t="n">
         <v>72.23035288210312</v>
       </c>
       <c r="J18" t="n">
-        <v>79.36985402649259</v>
+        <v>79.36985402649256</v>
       </c>
       <c r="K18" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400938</v>
       </c>
       <c r="L18" t="n">
-        <v>58.14149588130891</v>
+        <v>58.14149588130886</v>
       </c>
       <c r="M18" t="n">
-        <v>51.96206476056948</v>
+        <v>51.96206476056943</v>
       </c>
       <c r="N18" t="n">
-        <v>41.51206923517108</v>
+        <v>41.51206923517104</v>
       </c>
       <c r="O18" t="n">
-        <v>56.21137633839746</v>
+        <v>56.21137633839741</v>
       </c>
       <c r="P18" t="n">
-        <v>60.98136935834785</v>
+        <v>60.98136935834781</v>
       </c>
       <c r="Q18" t="n">
-        <v>81.73346793160958</v>
+        <v>81.73346793160955</v>
       </c>
       <c r="R18" t="n">
         <v>102.7991627330203</v>
@@ -28737,7 +28737,7 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H19" t="n">
-        <v>155.9102360382002</v>
+        <v>155.9102360382001</v>
       </c>
       <c r="I19" t="n">
         <v>136.4403570291208</v>
@@ -28746,22 +28746,22 @@
         <v>88.32412184825276</v>
       </c>
       <c r="K19" t="n">
-        <v>80.40428934589778</v>
+        <v>80.40428934589777</v>
       </c>
       <c r="L19" t="n">
-        <v>78.34590850546637</v>
+        <v>78.34590850546634</v>
       </c>
       <c r="M19" t="n">
-        <v>79.93067970396672</v>
+        <v>79.93067970396669</v>
       </c>
       <c r="N19" t="n">
-        <v>71.58137972518442</v>
+        <v>71.58137972518441</v>
       </c>
       <c r="O19" t="n">
-        <v>82.78808566083806</v>
+        <v>82.78808566083805</v>
       </c>
       <c r="P19" t="n">
-        <v>86.48380385827531</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q19" t="n">
         <v>105.4981853689493</v>
@@ -28819,43 +28819,43 @@
         <v>324.6944408748902</v>
       </c>
       <c r="I20" t="n">
-        <v>153.0249401179329</v>
+        <v>279.3292832302436</v>
       </c>
       <c r="J20" t="n">
         <v>107.3315132100092</v>
       </c>
       <c r="K20" t="n">
-        <v>119.2206547955826</v>
+        <v>119.2206547955825</v>
       </c>
       <c r="L20" t="n">
         <v>117.6182276069951</v>
       </c>
       <c r="M20" t="n">
-        <v>236.5040303003658</v>
+        <v>236.5040303003656</v>
       </c>
       <c r="N20" t="n">
-        <v>102.7921185173355</v>
+        <v>102.7921185173354</v>
       </c>
       <c r="O20" t="n">
-        <v>108.0080258701202</v>
+        <v>108.0080258701201</v>
       </c>
       <c r="P20" t="n">
-        <v>120.4975665775689</v>
+        <v>120.4975665775688</v>
       </c>
       <c r="Q20" t="n">
-        <v>200.4803281285628</v>
+        <v>261.6467887197701</v>
       </c>
       <c r="R20" t="n">
-        <v>145.7301858529673</v>
+        <v>145.7301858529672</v>
       </c>
       <c r="S20" t="n">
-        <v>306.3018383129487</v>
+        <v>306.3018383129486</v>
       </c>
       <c r="T20" t="n">
-        <v>329.9170228201715</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="U20" t="n">
-        <v>329.9170228201715</v>
+        <v>252.2989982740355</v>
       </c>
       <c r="V20" t="n">
         <v>329.9170228201715</v>
@@ -28895,34 +28895,34 @@
         <v>127.1905142842246</v>
       </c>
       <c r="H21" t="n">
-        <v>96.51723797799073</v>
+        <v>96.51723797799072</v>
       </c>
       <c r="I21" t="n">
         <v>72.23035288210312</v>
       </c>
       <c r="J21" t="n">
-        <v>79.36985402649259</v>
+        <v>79.36985402649256</v>
       </c>
       <c r="K21" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400938</v>
       </c>
       <c r="L21" t="n">
-        <v>58.14149588130891</v>
+        <v>58.14149588130886</v>
       </c>
       <c r="M21" t="n">
-        <v>51.96206476056948</v>
+        <v>51.96206476056943</v>
       </c>
       <c r="N21" t="n">
-        <v>41.51206923517108</v>
+        <v>41.51206923517104</v>
       </c>
       <c r="O21" t="n">
-        <v>56.21137633839746</v>
+        <v>56.21137633839741</v>
       </c>
       <c r="P21" t="n">
-        <v>60.98136935834785</v>
+        <v>60.98136935834781</v>
       </c>
       <c r="Q21" t="n">
-        <v>81.73346793160958</v>
+        <v>81.73346793160955</v>
       </c>
       <c r="R21" t="n">
         <v>102.7991627330203</v>
@@ -28974,7 +28974,7 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H22" t="n">
-        <v>155.9102360382002</v>
+        <v>155.9102360382001</v>
       </c>
       <c r="I22" t="n">
         <v>136.4403570291208</v>
@@ -28983,22 +28983,22 @@
         <v>88.32412184825276</v>
       </c>
       <c r="K22" t="n">
-        <v>80.40428934589778</v>
+        <v>80.40428934589777</v>
       </c>
       <c r="L22" t="n">
-        <v>78.34590850546637</v>
+        <v>78.34590850546634</v>
       </c>
       <c r="M22" t="n">
-        <v>79.93067970396672</v>
+        <v>79.93067970396669</v>
       </c>
       <c r="N22" t="n">
-        <v>71.58137972518442</v>
+        <v>71.58137972518441</v>
       </c>
       <c r="O22" t="n">
-        <v>82.78808566083806</v>
+        <v>82.78808566083805</v>
       </c>
       <c r="P22" t="n">
-        <v>86.48380385827531</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q22" t="n">
         <v>105.4981853689493</v>
@@ -29056,13 +29056,13 @@
         <v>324.6944408748902</v>
       </c>
       <c r="I23" t="n">
-        <v>153.0249401179329</v>
+        <v>201.7112586841076</v>
       </c>
       <c r="J23" t="n">
-        <v>107.3315132100092</v>
+        <v>238.9539339270489</v>
       </c>
       <c r="K23" t="n">
-        <v>119.2206547955826</v>
+        <v>119.2206547955825</v>
       </c>
       <c r="L23" t="n">
         <v>117.6182276069951</v>
@@ -29071,28 +29071,28 @@
         <v>104.881609583326</v>
       </c>
       <c r="N23" t="n">
-        <v>234.4145392343753</v>
+        <v>102.7921185173354</v>
       </c>
       <c r="O23" t="n">
-        <v>239.63044658716</v>
+        <v>239.6304465871598</v>
       </c>
       <c r="P23" t="n">
-        <v>252.1199872946087</v>
+        <v>120.4975665775688</v>
       </c>
       <c r="Q23" t="n">
-        <v>256.3287111150413</v>
+        <v>130.0243680027304</v>
       </c>
       <c r="R23" t="n">
-        <v>145.7301858529673</v>
+        <v>145.7301858529672</v>
       </c>
       <c r="S23" t="n">
-        <v>174.6794175959089</v>
+        <v>306.3018383129486</v>
       </c>
       <c r="T23" t="n">
         <v>220.0642436627892</v>
       </c>
       <c r="U23" t="n">
-        <v>252.2989982740355</v>
+        <v>329.9170228201715</v>
       </c>
       <c r="V23" t="n">
         <v>329.9170228201715</v>
@@ -29132,34 +29132,34 @@
         <v>127.1905142842246</v>
       </c>
       <c r="H24" t="n">
-        <v>96.51723797799073</v>
+        <v>96.51723797799072</v>
       </c>
       <c r="I24" t="n">
         <v>72.23035288210312</v>
       </c>
       <c r="J24" t="n">
-        <v>79.36985402649259</v>
+        <v>79.36985402649256</v>
       </c>
       <c r="K24" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400938</v>
       </c>
       <c r="L24" t="n">
-        <v>58.14149588130891</v>
+        <v>58.14149588130886</v>
       </c>
       <c r="M24" t="n">
-        <v>51.96206476056948</v>
+        <v>51.96206476056943</v>
       </c>
       <c r="N24" t="n">
-        <v>41.51206923517108</v>
+        <v>41.51206923517104</v>
       </c>
       <c r="O24" t="n">
-        <v>56.21137633839746</v>
+        <v>56.21137633839741</v>
       </c>
       <c r="P24" t="n">
-        <v>60.98136935834785</v>
+        <v>60.98136935834781</v>
       </c>
       <c r="Q24" t="n">
-        <v>81.73346793160958</v>
+        <v>81.73346793160955</v>
       </c>
       <c r="R24" t="n">
         <v>102.7991627330203</v>
@@ -29211,7 +29211,7 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H25" t="n">
-        <v>155.9102360382002</v>
+        <v>155.9102360382001</v>
       </c>
       <c r="I25" t="n">
         <v>136.4403570291208</v>
@@ -29220,22 +29220,22 @@
         <v>88.32412184825276</v>
       </c>
       <c r="K25" t="n">
-        <v>80.40428934589778</v>
+        <v>80.40428934589777</v>
       </c>
       <c r="L25" t="n">
-        <v>78.34590850546637</v>
+        <v>78.34590850546634</v>
       </c>
       <c r="M25" t="n">
-        <v>79.93067970396672</v>
+        <v>79.93067970396669</v>
       </c>
       <c r="N25" t="n">
-        <v>71.58137972518442</v>
+        <v>71.58137972518441</v>
       </c>
       <c r="O25" t="n">
-        <v>82.78808566083806</v>
+        <v>82.78808566083805</v>
       </c>
       <c r="P25" t="n">
-        <v>86.48380385827531</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q25" t="n">
         <v>105.4981853689493</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="C26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="D26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="E26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="F26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="G26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="H26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="I26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="J26" t="n">
-        <v>107.3315132100092</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="K26" t="n">
-        <v>173.7131980997912</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="L26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="M26" t="n">
-        <v>209.1282613130853</v>
+        <v>158.8619633407068</v>
       </c>
       <c r="N26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="O26" t="n">
-        <v>209.1282613130853</v>
+        <v>110.7579417646524</v>
       </c>
       <c r="P26" t="n">
-        <v>209.1282613130853</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="R26" t="n">
-        <v>145.7301858529673</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="S26" t="n">
-        <v>174.6794175959089</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="T26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="U26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="V26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="W26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="X26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="Y26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130852</v>
       </c>
     </row>
     <row r="27">
@@ -29369,52 +29369,52 @@
         <v>127.1905142842246</v>
       </c>
       <c r="H27" t="n">
-        <v>96.51723797799073</v>
+        <v>96.51723797799072</v>
       </c>
       <c r="I27" t="n">
         <v>72.23035288210312</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>79.36985402649256</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>71.51350511400938</v>
       </c>
       <c r="L27" t="n">
-        <v>58.14149588130891</v>
+        <v>58.14149588130886</v>
       </c>
       <c r="M27" t="n">
-        <v>106.9798624107715</v>
+        <v>51.96206476056943</v>
       </c>
       <c r="N27" t="n">
-        <v>41.51206923517108</v>
+        <v>41.51206923517104</v>
       </c>
       <c r="O27" t="n">
-        <v>56.21137633839746</v>
+        <v>56.21137633839741</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>60.98136935834781</v>
       </c>
       <c r="Q27" t="n">
-        <v>81.73346793160958</v>
+        <v>81.73346793160955</v>
       </c>
       <c r="R27" t="n">
         <v>102.7991627330203</v>
       </c>
       <c r="S27" t="n">
-        <v>146.6148367064899</v>
+        <v>201.6326343566922</v>
       </c>
       <c r="T27" t="n">
         <v>185.7877530736877</v>
       </c>
       <c r="U27" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="V27" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="W27" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="X27" t="n">
         <v>195.9378182409833</v>
@@ -29448,58 +29448,58 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H28" t="n">
-        <v>155.9102360382002</v>
+        <v>155.9102360382001</v>
       </c>
       <c r="I28" t="n">
-        <v>209.1282613130853</v>
+        <v>136.4403570291208</v>
       </c>
       <c r="J28" t="n">
         <v>88.32412184825276</v>
       </c>
       <c r="K28" t="n">
-        <v>209.1282613130853</v>
+        <v>80.40428934589777</v>
       </c>
       <c r="L28" t="n">
-        <v>78.34590850546637</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="M28" t="n">
-        <v>79.93067970396672</v>
+        <v>79.93067970396669</v>
       </c>
       <c r="N28" t="n">
-        <v>71.58137972518442</v>
+        <v>71.58137972518441</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>86.48380385827531</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>20.55233947787238</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="R28" t="n">
         <v>138.576149682035</v>
       </c>
       <c r="S28" t="n">
-        <v>207.9098175327</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="T28" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="U28" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="V28" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="W28" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="X28" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130852</v>
       </c>
     </row>
     <row r="29">
@@ -29530,16 +29530,16 @@
         <v>209.1282613130853</v>
       </c>
       <c r="I29" t="n">
-        <v>209.1282613130853</v>
+        <v>153.0249401179329</v>
       </c>
       <c r="J29" t="n">
         <v>209.1282613130853</v>
       </c>
       <c r="K29" t="n">
+        <v>135.2005622522389</v>
+      </c>
+      <c r="L29" t="n">
         <v>209.1282613130853</v>
-      </c>
-      <c r="L29" t="n">
-        <v>61.24924966595304</v>
       </c>
       <c r="M29" t="n">
         <v>209.1282613130853</v>
@@ -29551,13 +29551,13 @@
         <v>209.1282613130853</v>
       </c>
       <c r="P29" t="n">
-        <v>129.3322952415798</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="Q29" t="n">
-        <v>130.0243680027304</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="R29" t="n">
-        <v>209.1282613130853</v>
+        <v>60.29884001809006</v>
       </c>
       <c r="S29" t="n">
         <v>174.6794175959089</v>
@@ -29606,34 +29606,34 @@
         <v>127.1905142842246</v>
       </c>
       <c r="H30" t="n">
-        <v>96.51723797799073</v>
+        <v>96.51723797799072</v>
       </c>
       <c r="I30" t="n">
         <v>72.23035288210312</v>
       </c>
       <c r="J30" t="n">
-        <v>79.36985402649259</v>
+        <v>79.36985402649256</v>
       </c>
       <c r="K30" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400938</v>
       </c>
       <c r="L30" t="n">
-        <v>58.14149588130891</v>
+        <v>58.14149588130886</v>
       </c>
       <c r="M30" t="n">
-        <v>51.96206476056948</v>
+        <v>51.96206476056943</v>
       </c>
       <c r="N30" t="n">
-        <v>41.51206923517108</v>
+        <v>41.51206923517104</v>
       </c>
       <c r="O30" t="n">
-        <v>56.21137633839746</v>
+        <v>111.2291739885994</v>
       </c>
       <c r="P30" t="n">
-        <v>60.98136935834785</v>
+        <v>60.98136935834781</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.7512655818116</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>102.7991627330203</v>
@@ -29667,7 +29667,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>209.1282613130853</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C31" t="n">
         <v>167.9198098429365</v>
@@ -29676,7 +29676,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E31" t="n">
-        <v>209.1282613130853</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F31" t="n">
         <v>150.9558484244806</v>
@@ -29685,40 +29685,40 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H31" t="n">
-        <v>195.8716367612563</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="I31" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J31" t="n">
-        <v>88.32412184825276</v>
+        <v>44.59700812871242</v>
       </c>
       <c r="K31" t="n">
+        <v>80.40428934589777</v>
+      </c>
+      <c r="L31" t="n">
+        <v>78.34590850546634</v>
+      </c>
+      <c r="M31" t="n">
+        <v>79.93067970396669</v>
+      </c>
+      <c r="N31" t="n">
         <v>209.1282613130853</v>
       </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>71.58137972518442</v>
-      </c>
       <c r="O31" t="n">
-        <v>82.78808566083806</v>
+        <v>82.78808566083805</v>
       </c>
       <c r="P31" t="n">
-        <v>86.48380385827531</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q31" t="n">
-        <v>20.55233947787238</v>
+        <v>20.55233947787237</v>
       </c>
       <c r="R31" t="n">
         <v>138.576149682035</v>
       </c>
       <c r="S31" t="n">
-        <v>207.9098175327</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="T31" t="n">
         <v>209.1282613130853</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="C32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="D32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="E32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="F32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="G32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="H32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="I32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="J32" t="n">
-        <v>107.3315132100092</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="K32" t="n">
-        <v>181.0512670763459</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="L32" t="n">
-        <v>209.1282613130854</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>209.1282613130854</v>
+        <v>104.881609583326</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="O32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="P32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="Q32" t="n">
-        <v>209.1282613130854</v>
+        <v>198.5020496212203</v>
       </c>
       <c r="R32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="S32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="T32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="U32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="V32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="W32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="X32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="Y32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
     </row>
     <row r="33">
@@ -29837,40 +29837,40 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F33" t="n">
-        <v>133.3468600696244</v>
+        <v>188.3646577198264</v>
       </c>
       <c r="G33" t="n">
         <v>127.1905142842246</v>
       </c>
       <c r="H33" t="n">
-        <v>96.51723797799073</v>
+        <v>96.51723797799072</v>
       </c>
       <c r="I33" t="n">
         <v>59.06688158894272</v>
       </c>
       <c r="J33" t="n">
-        <v>79.36985402649259</v>
+        <v>79.36985402649256</v>
       </c>
       <c r="K33" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400938</v>
       </c>
       <c r="L33" t="n">
-        <v>58.14149588130891</v>
+        <v>58.14149588130886</v>
       </c>
       <c r="M33" t="n">
-        <v>51.96206476056948</v>
+        <v>51.96206476056943</v>
       </c>
       <c r="N33" t="n">
-        <v>96.52986688537266</v>
+        <v>41.51206923517104</v>
       </c>
       <c r="O33" t="n">
-        <v>56.21137633839746</v>
+        <v>56.21137633839741</v>
       </c>
       <c r="P33" t="n">
-        <v>27.23704196777834</v>
+        <v>60.98136935834781</v>
       </c>
       <c r="Q33" t="n">
-        <v>81.73346793160958</v>
+        <v>81.73346793160955</v>
       </c>
       <c r="R33" t="n">
         <v>102.7991627330203</v>
@@ -29882,13 +29882,13 @@
         <v>185.7877530736877</v>
       </c>
       <c r="U33" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="V33" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="W33" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="X33" t="n">
         <v>195.9378182409833</v>
@@ -29919,61 +29919,61 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>209.1282613130854</v>
+        <v>167.0203721066311</v>
       </c>
       <c r="H34" t="n">
-        <v>155.9102360382002</v>
+        <v>155.9102360382001</v>
       </c>
       <c r="I34" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J34" t="n">
-        <v>171.7518072552626</v>
+        <v>88.32412184825276</v>
       </c>
       <c r="K34" t="n">
-        <v>80.40428934589778</v>
+        <v>80.40428934589777</v>
       </c>
       <c r="L34" t="n">
-        <v>78.34590850546637</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>209.1282613130854</v>
+        <v>79.93067970396669</v>
       </c>
       <c r="N34" t="n">
-        <v>71.58137972518442</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="P34" t="n">
-        <v>86.48380385827531</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q34" t="n">
-        <v>20.55233947787238</v>
+        <v>105.4981853689493</v>
       </c>
       <c r="R34" t="n">
         <v>138.576149682035</v>
       </c>
       <c r="S34" t="n">
-        <v>207.9098175327</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="T34" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="U34" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="V34" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="W34" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="X34" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="Y34" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="C35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="D35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="E35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="F35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="G35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="H35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="I35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="J35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="K35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="L35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="M35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="N35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="O35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="P35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="R35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="S35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="T35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="U35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="V35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="W35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="X35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="Y35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
     </row>
     <row r="36">
@@ -30080,34 +30080,34 @@
         <v>127.1905142842246</v>
       </c>
       <c r="H36" t="n">
-        <v>96.51723797799073</v>
+        <v>96.51723797799072</v>
       </c>
       <c r="I36" t="n">
         <v>72.23035288210312</v>
       </c>
       <c r="J36" t="n">
-        <v>79.36985402649259</v>
+        <v>79.36985402649256</v>
       </c>
       <c r="K36" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400938</v>
       </c>
       <c r="L36" t="n">
-        <v>58.14149588130891</v>
+        <v>58.14149588130886</v>
       </c>
       <c r="M36" t="n">
-        <v>51.96206476056948</v>
+        <v>51.96206476056943</v>
       </c>
       <c r="N36" t="n">
-        <v>41.51206923517108</v>
+        <v>41.51206923517104</v>
       </c>
       <c r="O36" t="n">
-        <v>56.21137633839746</v>
+        <v>56.21137633839741</v>
       </c>
       <c r="P36" t="n">
-        <v>60.98136935834785</v>
+        <v>60.98136935834781</v>
       </c>
       <c r="Q36" t="n">
-        <v>81.73346793160958</v>
+        <v>81.73346793160955</v>
       </c>
       <c r="R36" t="n">
         <v>102.7991627330203</v>
@@ -30159,7 +30159,7 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H37" t="n">
-        <v>155.9102360382002</v>
+        <v>155.9102360382001</v>
       </c>
       <c r="I37" t="n">
         <v>136.4403570291208</v>
@@ -30168,22 +30168,22 @@
         <v>88.32412184825276</v>
       </c>
       <c r="K37" t="n">
-        <v>155.2729769675659</v>
+        <v>80.40428934589777</v>
       </c>
       <c r="L37" t="n">
-        <v>78.34590850546637</v>
+        <v>78.34590850546634</v>
       </c>
       <c r="M37" t="n">
-        <v>79.93067970396672</v>
+        <v>111.9255645478338</v>
       </c>
       <c r="N37" t="n">
-        <v>71.58137972518442</v>
+        <v>71.58137972518441</v>
       </c>
       <c r="O37" t="n">
-        <v>82.78808566083806</v>
+        <v>82.78808566083805</v>
       </c>
       <c r="P37" t="n">
-        <v>86.48380385827531</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q37" t="n">
         <v>105.4981853689493</v>
@@ -30192,19 +30192,19 @@
         <v>138.576149682035</v>
       </c>
       <c r="S37" t="n">
-        <v>207.9098175327</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="T37" t="n">
         <v>229.9491259395436</v>
       </c>
       <c r="U37" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="V37" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="W37" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="X37" t="n">
         <v>228.939939463578</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="C38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="D38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="E38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="F38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="G38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="H38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="I38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="J38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="K38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="L38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="M38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="N38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="O38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="P38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="R38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="S38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="T38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="U38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="V38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="W38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="X38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="Y38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
     </row>
     <row r="39">
@@ -30317,34 +30317,34 @@
         <v>127.1905142842246</v>
       </c>
       <c r="H39" t="n">
-        <v>96.51723797799073</v>
+        <v>96.51723797799072</v>
       </c>
       <c r="I39" t="n">
         <v>72.23035288210312</v>
       </c>
       <c r="J39" t="n">
-        <v>79.36985402649259</v>
+        <v>79.36985402649256</v>
       </c>
       <c r="K39" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400938</v>
       </c>
       <c r="L39" t="n">
-        <v>58.14149588130891</v>
+        <v>58.14149588130886</v>
       </c>
       <c r="M39" t="n">
-        <v>51.96206476056948</v>
+        <v>51.96206476056943</v>
       </c>
       <c r="N39" t="n">
-        <v>41.51206923517108</v>
+        <v>41.51206923517104</v>
       </c>
       <c r="O39" t="n">
-        <v>56.21137633839746</v>
+        <v>56.21137633839741</v>
       </c>
       <c r="P39" t="n">
-        <v>60.98136935834785</v>
+        <v>60.98136935834781</v>
       </c>
       <c r="Q39" t="n">
-        <v>81.73346793160958</v>
+        <v>81.73346793160955</v>
       </c>
       <c r="R39" t="n">
         <v>102.7991627330203</v>
@@ -30396,31 +30396,31 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H40" t="n">
-        <v>155.9102360382002</v>
+        <v>155.9102360382001</v>
       </c>
       <c r="I40" t="n">
-        <v>136.4403570291208</v>
+        <v>168.4352418729879</v>
       </c>
       <c r="J40" t="n">
         <v>88.32412184825276</v>
       </c>
       <c r="K40" t="n">
-        <v>133.4292961206434</v>
+        <v>80.40428934589777</v>
       </c>
       <c r="L40" t="n">
-        <v>78.34590850546637</v>
+        <v>78.34590850546634</v>
       </c>
       <c r="M40" t="n">
-        <v>79.93067970396672</v>
+        <v>79.93067970396669</v>
       </c>
       <c r="N40" t="n">
-        <v>71.58137972518442</v>
+        <v>71.58137972518441</v>
       </c>
       <c r="O40" t="n">
-        <v>82.78808566083806</v>
+        <v>82.78808566083805</v>
       </c>
       <c r="P40" t="n">
-        <v>86.48380385827531</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q40" t="n">
         <v>105.4981853689493</v>
@@ -30429,22 +30429,22 @@
         <v>138.576149682035</v>
       </c>
       <c r="S40" t="n">
-        <v>207.9098175327</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="T40" t="n">
         <v>229.9491259395436</v>
       </c>
       <c r="U40" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="V40" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="W40" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="X40" t="n">
-        <v>250.7836203105006</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y40" t="n">
         <v>219.8148072196457</v>
@@ -30554,34 +30554,34 @@
         <v>127.1905142842246</v>
       </c>
       <c r="H42" t="n">
-        <v>96.51723797799073</v>
+        <v>96.51723797799072</v>
       </c>
       <c r="I42" t="n">
         <v>72.23035288210312</v>
       </c>
       <c r="J42" t="n">
-        <v>79.36985402649259</v>
+        <v>79.36985402649256</v>
       </c>
       <c r="K42" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400938</v>
       </c>
       <c r="L42" t="n">
-        <v>58.14149588130891</v>
+        <v>58.14149588130886</v>
       </c>
       <c r="M42" t="n">
-        <v>51.96206476056948</v>
+        <v>51.96206476056943</v>
       </c>
       <c r="N42" t="n">
-        <v>41.51206923517108</v>
+        <v>41.51206923517104</v>
       </c>
       <c r="O42" t="n">
-        <v>56.21137633839746</v>
+        <v>56.21137633839741</v>
       </c>
       <c r="P42" t="n">
-        <v>60.98136935834785</v>
+        <v>60.98136935834781</v>
       </c>
       <c r="Q42" t="n">
-        <v>81.73346793160958</v>
+        <v>81.73346793160955</v>
       </c>
       <c r="R42" t="n">
         <v>102.7991627330203</v>
@@ -30633,34 +30633,34 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H43" t="n">
-        <v>155.9102360382002</v>
+        <v>155.9102360382001</v>
       </c>
       <c r="I43" t="n">
-        <v>180.3402315599338</v>
+        <v>136.4403570291208</v>
       </c>
       <c r="J43" t="n">
         <v>88.32412184825276</v>
       </c>
       <c r="K43" t="n">
-        <v>80.40428934589778</v>
+        <v>80.40428934589777</v>
       </c>
       <c r="L43" t="n">
-        <v>78.34590850546637</v>
+        <v>78.34590850546634</v>
       </c>
       <c r="M43" t="n">
-        <v>79.93067970396672</v>
+        <v>79.93067970396669</v>
       </c>
       <c r="N43" t="n">
-        <v>71.58137972518442</v>
+        <v>71.58137972518441</v>
       </c>
       <c r="O43" t="n">
-        <v>82.78808566083806</v>
+        <v>82.78808566083805</v>
       </c>
       <c r="P43" t="n">
-        <v>86.48380385827531</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q43" t="n">
-        <v>105.4981853689493</v>
+        <v>159.5323786196603</v>
       </c>
       <c r="R43" t="n">
         <v>138.576149682035</v>
@@ -30669,7 +30669,7 @@
         <v>207.9098175327</v>
       </c>
       <c r="T43" t="n">
-        <v>229.9491259395436</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="U43" t="n">
         <v>250.7836203105006</v>
@@ -30684,7 +30684,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y43" t="n">
-        <v>250.7836203105006</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="44">
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105005</v>
       </c>
       <c r="C44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105005</v>
       </c>
       <c r="D44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105005</v>
       </c>
       <c r="E44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105005</v>
       </c>
       <c r="F44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105005</v>
       </c>
       <c r="G44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105005</v>
       </c>
       <c r="H44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105005</v>
       </c>
       <c r="I44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105005</v>
       </c>
       <c r="J44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105005</v>
       </c>
       <c r="K44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105005</v>
       </c>
       <c r="L44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105005</v>
       </c>
       <c r="M44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105005</v>
       </c>
       <c r="N44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105005</v>
       </c>
       <c r="O44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105005</v>
       </c>
       <c r="P44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105005</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105005</v>
       </c>
       <c r="R44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105005</v>
       </c>
       <c r="S44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105005</v>
       </c>
       <c r="T44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105005</v>
       </c>
       <c r="U44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105005</v>
       </c>
       <c r="V44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105005</v>
       </c>
       <c r="W44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105005</v>
       </c>
       <c r="X44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105005</v>
       </c>
       <c r="Y44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105005</v>
       </c>
     </row>
     <row r="45">
@@ -30791,34 +30791,34 @@
         <v>127.1905142842246</v>
       </c>
       <c r="H45" t="n">
-        <v>96.51723797799073</v>
+        <v>96.51723797799072</v>
       </c>
       <c r="I45" t="n">
         <v>72.23035288210312</v>
       </c>
       <c r="J45" t="n">
-        <v>79.36985402649259</v>
+        <v>79.36985402649256</v>
       </c>
       <c r="K45" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400938</v>
       </c>
       <c r="L45" t="n">
-        <v>58.14149588130891</v>
+        <v>58.14149588130886</v>
       </c>
       <c r="M45" t="n">
-        <v>51.96206476056948</v>
+        <v>51.96206476056943</v>
       </c>
       <c r="N45" t="n">
-        <v>41.51206923517108</v>
+        <v>41.51206923517104</v>
       </c>
       <c r="O45" t="n">
-        <v>56.21137633839746</v>
+        <v>56.21137633839741</v>
       </c>
       <c r="P45" t="n">
-        <v>60.98136935834785</v>
+        <v>60.98136935834781</v>
       </c>
       <c r="Q45" t="n">
-        <v>81.73346793160958</v>
+        <v>81.73346793160955</v>
       </c>
       <c r="R45" t="n">
         <v>102.7991627330203</v>
@@ -30867,10 +30867,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>241.889059728299</v>
+        <v>167.0203721066311</v>
       </c>
       <c r="H46" t="n">
-        <v>155.9102360382002</v>
+        <v>155.9102360382001</v>
       </c>
       <c r="I46" t="n">
         <v>136.4403570291208</v>
@@ -30879,22 +30879,22 @@
         <v>88.32412184825276</v>
       </c>
       <c r="K46" t="n">
-        <v>80.40428934589778</v>
+        <v>80.40428934589777</v>
       </c>
       <c r="L46" t="n">
-        <v>78.34590850546637</v>
+        <v>78.34590850546634</v>
       </c>
       <c r="M46" t="n">
-        <v>79.93067970396672</v>
+        <v>79.93067970396669</v>
       </c>
       <c r="N46" t="n">
-        <v>71.58137972518442</v>
+        <v>71.58137972518441</v>
       </c>
       <c r="O46" t="n">
-        <v>82.78808566083806</v>
+        <v>157.6567732825064</v>
       </c>
       <c r="P46" t="n">
-        <v>86.48380385827531</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q46" t="n">
         <v>105.4981853689493</v>
@@ -30909,13 +30909,13 @@
         <v>229.9491259395436</v>
       </c>
       <c r="U46" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105005</v>
       </c>
       <c r="V46" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105005</v>
       </c>
       <c r="W46" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105005</v>
       </c>
       <c r="X46" t="n">
         <v>228.939939463578</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4685581138800083</v>
+        <v>0.4685581138800087</v>
       </c>
       <c r="H11" t="n">
-        <v>4.798620783773637</v>
+        <v>4.79862078377364</v>
       </c>
       <c r="I11" t="n">
-        <v>18.06408668535904</v>
+        <v>18.06408668535905</v>
       </c>
       <c r="J11" t="n">
-        <v>39.76828421792339</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K11" t="n">
-        <v>59.60234917846416</v>
+        <v>59.6023491784642</v>
       </c>
       <c r="L11" t="n">
-        <v>73.94198455611948</v>
+        <v>73.94198455611954</v>
       </c>
       <c r="M11" t="n">
-        <v>82.27470491383308</v>
+        <v>82.27470491383313</v>
       </c>
       <c r="N11" t="n">
-        <v>83.60599565489466</v>
+        <v>83.60599565489471</v>
       </c>
       <c r="O11" t="n">
-        <v>78.94677091000031</v>
+        <v>78.94677091000038</v>
       </c>
       <c r="P11" t="n">
-        <v>67.3792424735876</v>
+        <v>67.37924247358765</v>
       </c>
       <c r="Q11" t="n">
-        <v>50.59900502025979</v>
+        <v>50.59900502025982</v>
       </c>
       <c r="R11" t="n">
-        <v>29.4330636210151</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S11" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004071</v>
       </c>
       <c r="T11" t="n">
-        <v>2.051113143509737</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03748464911040066</v>
+        <v>0.03748464911040069</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2507006927236292</v>
+        <v>0.2507006927236294</v>
       </c>
       <c r="H12" t="n">
-        <v>2.421240900778209</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I12" t="n">
-        <v>8.631580867896883</v>
+        <v>8.63158086789689</v>
       </c>
       <c r="J12" t="n">
-        <v>23.68571764017411</v>
+        <v>23.68571764017413</v>
       </c>
       <c r="K12" t="n">
-        <v>40.48266405265726</v>
+        <v>40.48266405265729</v>
       </c>
       <c r="L12" t="n">
-        <v>54.43393768983888</v>
+        <v>54.43393768983892</v>
       </c>
       <c r="M12" t="n">
-        <v>63.52183780107042</v>
+        <v>63.52183780107047</v>
       </c>
       <c r="N12" t="n">
-        <v>65.20307183253723</v>
+        <v>65.20307183253728</v>
       </c>
       <c r="O12" t="n">
-        <v>59.64807227271365</v>
+        <v>59.64807227271369</v>
       </c>
       <c r="P12" t="n">
-        <v>47.87283666579548</v>
+        <v>47.87283666579551</v>
       </c>
       <c r="Q12" t="n">
-        <v>32.00172351328291</v>
+        <v>32.00172351328294</v>
       </c>
       <c r="R12" t="n">
-        <v>15.56543423770042</v>
+        <v>15.56543423770043</v>
       </c>
       <c r="S12" t="n">
-        <v>4.656655410897232</v>
+        <v>4.656655410897235</v>
       </c>
       <c r="T12" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655457</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2101790391974055</v>
+        <v>0.2101790391974057</v>
       </c>
       <c r="H13" t="n">
-        <v>1.868682730318752</v>
+        <v>1.868682730318754</v>
       </c>
       <c r="I13" t="n">
-        <v>6.320656924227434</v>
+        <v>6.320656924227438</v>
       </c>
       <c r="J13" t="n">
-        <v>14.85965807125657</v>
+        <v>14.85965807125658</v>
       </c>
       <c r="K13" t="n">
-        <v>24.4189829176622</v>
+        <v>24.41898291766222</v>
       </c>
       <c r="L13" t="n">
-        <v>31.24789097303973</v>
+        <v>31.24789097303976</v>
       </c>
       <c r="M13" t="n">
-        <v>32.94651975346239</v>
+        <v>32.94651975346241</v>
       </c>
       <c r="N13" t="n">
-        <v>32.16312515281754</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O13" t="n">
-        <v>29.7078518312842</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P13" t="n">
-        <v>25.42019943165711</v>
+        <v>25.42019943165713</v>
       </c>
       <c r="Q13" t="n">
-        <v>17.59962845497548</v>
+        <v>17.59962845497549</v>
       </c>
       <c r="R13" t="n">
-        <v>9.450413889730614</v>
+        <v>9.450413889730619</v>
       </c>
       <c r="S13" t="n">
-        <v>3.662847437649329</v>
+        <v>3.662847437649332</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8980377129343688</v>
+        <v>0.8980377129343694</v>
       </c>
       <c r="U13" t="n">
         <v>0.01146431122894941</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4685581138800083</v>
+        <v>0.4685581138800087</v>
       </c>
       <c r="H14" t="n">
-        <v>4.798620783773637</v>
+        <v>4.79862078377364</v>
       </c>
       <c r="I14" t="n">
-        <v>18.06408668535904</v>
+        <v>18.06408668535905</v>
       </c>
       <c r="J14" t="n">
-        <v>39.76828421792339</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K14" t="n">
-        <v>59.60234917846416</v>
+        <v>59.6023491784642</v>
       </c>
       <c r="L14" t="n">
-        <v>73.94198455611948</v>
+        <v>73.94198455611954</v>
       </c>
       <c r="M14" t="n">
-        <v>82.27470491383308</v>
+        <v>82.27470491383313</v>
       </c>
       <c r="N14" t="n">
-        <v>83.60599565489466</v>
+        <v>83.60599565489471</v>
       </c>
       <c r="O14" t="n">
-        <v>78.94677091000031</v>
+        <v>78.94677091000038</v>
       </c>
       <c r="P14" t="n">
-        <v>67.3792424735876</v>
+        <v>67.37924247358765</v>
       </c>
       <c r="Q14" t="n">
-        <v>50.59900502025979</v>
+        <v>50.59900502025982</v>
       </c>
       <c r="R14" t="n">
-        <v>29.4330636210151</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S14" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004071</v>
       </c>
       <c r="T14" t="n">
-        <v>2.051113143509737</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03748464911040066</v>
+        <v>0.03748464911040069</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2507006927236292</v>
+        <v>0.2507006927236294</v>
       </c>
       <c r="H15" t="n">
-        <v>2.421240900778209</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I15" t="n">
-        <v>8.631580867896883</v>
+        <v>8.63158086789689</v>
       </c>
       <c r="J15" t="n">
-        <v>23.68571764017411</v>
+        <v>23.68571764017413</v>
       </c>
       <c r="K15" t="n">
-        <v>40.48266405265726</v>
+        <v>40.48266405265729</v>
       </c>
       <c r="L15" t="n">
-        <v>54.43393768983888</v>
+        <v>54.43393768983892</v>
       </c>
       <c r="M15" t="n">
-        <v>63.52183780107042</v>
+        <v>63.52183780107047</v>
       </c>
       <c r="N15" t="n">
-        <v>65.20307183253723</v>
+        <v>65.20307183253728</v>
       </c>
       <c r="O15" t="n">
-        <v>59.64807227271365</v>
+        <v>59.64807227271369</v>
       </c>
       <c r="P15" t="n">
-        <v>47.87283666579548</v>
+        <v>47.87283666579551</v>
       </c>
       <c r="Q15" t="n">
-        <v>32.00172351328291</v>
+        <v>32.00172351328294</v>
       </c>
       <c r="R15" t="n">
-        <v>15.56543423770042</v>
+        <v>15.56543423770043</v>
       </c>
       <c r="S15" t="n">
-        <v>4.656655410897232</v>
+        <v>4.656655410897235</v>
       </c>
       <c r="T15" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655457</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2101790391974055</v>
+        <v>0.2101790391974057</v>
       </c>
       <c r="H16" t="n">
-        <v>1.868682730318752</v>
+        <v>1.868682730318754</v>
       </c>
       <c r="I16" t="n">
-        <v>6.320656924227434</v>
+        <v>6.320656924227438</v>
       </c>
       <c r="J16" t="n">
-        <v>14.85965807125657</v>
+        <v>14.85965807125658</v>
       </c>
       <c r="K16" t="n">
-        <v>24.4189829176622</v>
+        <v>24.41898291766222</v>
       </c>
       <c r="L16" t="n">
-        <v>31.24789097303973</v>
+        <v>31.24789097303976</v>
       </c>
       <c r="M16" t="n">
-        <v>32.94651975346239</v>
+        <v>32.94651975346241</v>
       </c>
       <c r="N16" t="n">
-        <v>32.16312515281754</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O16" t="n">
-        <v>29.7078518312842</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P16" t="n">
-        <v>25.42019943165711</v>
+        <v>25.42019943165713</v>
       </c>
       <c r="Q16" t="n">
-        <v>17.59962845497548</v>
+        <v>17.59962845497549</v>
       </c>
       <c r="R16" t="n">
-        <v>9.450413889730614</v>
+        <v>9.450413889730619</v>
       </c>
       <c r="S16" t="n">
-        <v>3.662847437649329</v>
+        <v>3.662847437649332</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8980377129343688</v>
+        <v>0.8980377129343694</v>
       </c>
       <c r="U16" t="n">
         <v>0.01146431122894941</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4685581138800083</v>
+        <v>0.4685581138800087</v>
       </c>
       <c r="H17" t="n">
-        <v>4.798620783773637</v>
+        <v>4.79862078377364</v>
       </c>
       <c r="I17" t="n">
-        <v>18.06408668535904</v>
+        <v>18.06408668535905</v>
       </c>
       <c r="J17" t="n">
-        <v>39.76828421792339</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K17" t="n">
-        <v>59.60234917846416</v>
+        <v>59.6023491784642</v>
       </c>
       <c r="L17" t="n">
-        <v>73.94198455611948</v>
+        <v>73.94198455611954</v>
       </c>
       <c r="M17" t="n">
-        <v>82.27470491383308</v>
+        <v>82.27470491383313</v>
       </c>
       <c r="N17" t="n">
-        <v>83.60599565489466</v>
+        <v>83.60599565489471</v>
       </c>
       <c r="O17" t="n">
-        <v>78.94677091000031</v>
+        <v>78.94677091000038</v>
       </c>
       <c r="P17" t="n">
-        <v>67.3792424735876</v>
+        <v>67.37924247358765</v>
       </c>
       <c r="Q17" t="n">
-        <v>50.59900502025979</v>
+        <v>50.59900502025982</v>
       </c>
       <c r="R17" t="n">
-        <v>29.4330636210151</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S17" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004071</v>
       </c>
       <c r="T17" t="n">
-        <v>2.051113143509737</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03748464911040066</v>
+        <v>0.03748464911040069</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2507006927236292</v>
+        <v>0.2507006927236294</v>
       </c>
       <c r="H18" t="n">
-        <v>2.421240900778209</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I18" t="n">
-        <v>8.631580867896883</v>
+        <v>8.63158086789689</v>
       </c>
       <c r="J18" t="n">
-        <v>23.68571764017411</v>
+        <v>23.68571764017413</v>
       </c>
       <c r="K18" t="n">
-        <v>40.48266405265726</v>
+        <v>40.48266405265729</v>
       </c>
       <c r="L18" t="n">
-        <v>54.43393768983888</v>
+        <v>54.43393768983892</v>
       </c>
       <c r="M18" t="n">
-        <v>63.52183780107042</v>
+        <v>63.52183780107047</v>
       </c>
       <c r="N18" t="n">
-        <v>65.20307183253723</v>
+        <v>65.20307183253728</v>
       </c>
       <c r="O18" t="n">
-        <v>59.64807227271365</v>
+        <v>59.64807227271369</v>
       </c>
       <c r="P18" t="n">
-        <v>47.87283666579548</v>
+        <v>47.87283666579551</v>
       </c>
       <c r="Q18" t="n">
-        <v>32.00172351328291</v>
+        <v>32.00172351328294</v>
       </c>
       <c r="R18" t="n">
-        <v>15.56543423770042</v>
+        <v>15.56543423770043</v>
       </c>
       <c r="S18" t="n">
-        <v>4.656655410897232</v>
+        <v>4.656655410897235</v>
       </c>
       <c r="T18" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655457</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2101790391974055</v>
+        <v>0.2101790391974057</v>
       </c>
       <c r="H19" t="n">
-        <v>1.868682730318752</v>
+        <v>1.868682730318754</v>
       </c>
       <c r="I19" t="n">
-        <v>6.320656924227434</v>
+        <v>6.320656924227438</v>
       </c>
       <c r="J19" t="n">
-        <v>14.85965807125657</v>
+        <v>14.85965807125658</v>
       </c>
       <c r="K19" t="n">
-        <v>24.4189829176622</v>
+        <v>24.41898291766222</v>
       </c>
       <c r="L19" t="n">
-        <v>31.24789097303973</v>
+        <v>31.24789097303976</v>
       </c>
       <c r="M19" t="n">
-        <v>32.94651975346239</v>
+        <v>32.94651975346241</v>
       </c>
       <c r="N19" t="n">
-        <v>32.16312515281754</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O19" t="n">
-        <v>29.7078518312842</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P19" t="n">
-        <v>25.42019943165711</v>
+        <v>25.42019943165713</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.59962845497548</v>
+        <v>17.59962845497549</v>
       </c>
       <c r="R19" t="n">
-        <v>9.450413889730614</v>
+        <v>9.450413889730619</v>
       </c>
       <c r="S19" t="n">
-        <v>3.662847437649329</v>
+        <v>3.662847437649332</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8980377129343688</v>
+        <v>0.8980377129343694</v>
       </c>
       <c r="U19" t="n">
         <v>0.01146431122894941</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4685581138800083</v>
+        <v>0.4685581138800087</v>
       </c>
       <c r="H20" t="n">
-        <v>4.798620783773637</v>
+        <v>4.79862078377364</v>
       </c>
       <c r="I20" t="n">
-        <v>18.06408668535904</v>
+        <v>18.06408668535905</v>
       </c>
       <c r="J20" t="n">
-        <v>39.76828421792339</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K20" t="n">
-        <v>59.60234917846416</v>
+        <v>59.6023491784642</v>
       </c>
       <c r="L20" t="n">
-        <v>73.94198455611948</v>
+        <v>73.94198455611954</v>
       </c>
       <c r="M20" t="n">
-        <v>82.27470491383308</v>
+        <v>82.27470491383313</v>
       </c>
       <c r="N20" t="n">
-        <v>83.60599565489466</v>
+        <v>83.60599565489471</v>
       </c>
       <c r="O20" t="n">
-        <v>78.94677091000031</v>
+        <v>78.94677091000038</v>
       </c>
       <c r="P20" t="n">
-        <v>67.3792424735876</v>
+        <v>67.37924247358765</v>
       </c>
       <c r="Q20" t="n">
-        <v>50.59900502025979</v>
+        <v>50.59900502025982</v>
       </c>
       <c r="R20" t="n">
-        <v>29.4330636210151</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S20" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004071</v>
       </c>
       <c r="T20" t="n">
-        <v>2.051113143509737</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03748464911040066</v>
+        <v>0.03748464911040069</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2507006927236292</v>
+        <v>0.2507006927236294</v>
       </c>
       <c r="H21" t="n">
-        <v>2.421240900778209</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I21" t="n">
-        <v>8.631580867896883</v>
+        <v>8.63158086789689</v>
       </c>
       <c r="J21" t="n">
-        <v>23.68571764017411</v>
+        <v>23.68571764017413</v>
       </c>
       <c r="K21" t="n">
-        <v>40.48266405265726</v>
+        <v>40.48266405265729</v>
       </c>
       <c r="L21" t="n">
-        <v>54.43393768983888</v>
+        <v>54.43393768983892</v>
       </c>
       <c r="M21" t="n">
-        <v>63.52183780107042</v>
+        <v>63.52183780107047</v>
       </c>
       <c r="N21" t="n">
-        <v>65.20307183253723</v>
+        <v>65.20307183253728</v>
       </c>
       <c r="O21" t="n">
-        <v>59.64807227271365</v>
+        <v>59.64807227271369</v>
       </c>
       <c r="P21" t="n">
-        <v>47.87283666579548</v>
+        <v>47.87283666579551</v>
       </c>
       <c r="Q21" t="n">
-        <v>32.00172351328291</v>
+        <v>32.00172351328294</v>
       </c>
       <c r="R21" t="n">
-        <v>15.56543423770042</v>
+        <v>15.56543423770043</v>
       </c>
       <c r="S21" t="n">
-        <v>4.656655410897232</v>
+        <v>4.656655410897235</v>
       </c>
       <c r="T21" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655457</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2101790391974055</v>
+        <v>0.2101790391974057</v>
       </c>
       <c r="H22" t="n">
-        <v>1.868682730318752</v>
+        <v>1.868682730318754</v>
       </c>
       <c r="I22" t="n">
-        <v>6.320656924227434</v>
+        <v>6.320656924227438</v>
       </c>
       <c r="J22" t="n">
-        <v>14.85965807125657</v>
+        <v>14.85965807125658</v>
       </c>
       <c r="K22" t="n">
-        <v>24.4189829176622</v>
+        <v>24.41898291766222</v>
       </c>
       <c r="L22" t="n">
-        <v>31.24789097303973</v>
+        <v>31.24789097303976</v>
       </c>
       <c r="M22" t="n">
-        <v>32.94651975346239</v>
+        <v>32.94651975346241</v>
       </c>
       <c r="N22" t="n">
-        <v>32.16312515281754</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O22" t="n">
-        <v>29.7078518312842</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P22" t="n">
-        <v>25.42019943165711</v>
+        <v>25.42019943165713</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.59962845497548</v>
+        <v>17.59962845497549</v>
       </c>
       <c r="R22" t="n">
-        <v>9.450413889730614</v>
+        <v>9.450413889730619</v>
       </c>
       <c r="S22" t="n">
-        <v>3.662847437649329</v>
+        <v>3.662847437649332</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8980377129343688</v>
+        <v>0.8980377129343694</v>
       </c>
       <c r="U22" t="n">
         <v>0.01146431122894941</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4685581138800083</v>
+        <v>0.4685581138800087</v>
       </c>
       <c r="H23" t="n">
-        <v>4.798620783773637</v>
+        <v>4.79862078377364</v>
       </c>
       <c r="I23" t="n">
-        <v>18.06408668535904</v>
+        <v>18.06408668535905</v>
       </c>
       <c r="J23" t="n">
-        <v>39.76828421792339</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K23" t="n">
-        <v>59.60234917846416</v>
+        <v>59.6023491784642</v>
       </c>
       <c r="L23" t="n">
-        <v>73.94198455611948</v>
+        <v>73.94198455611954</v>
       </c>
       <c r="M23" t="n">
-        <v>82.27470491383308</v>
+        <v>82.27470491383313</v>
       </c>
       <c r="N23" t="n">
-        <v>83.60599565489466</v>
+        <v>83.60599565489471</v>
       </c>
       <c r="O23" t="n">
-        <v>78.94677091000031</v>
+        <v>78.94677091000038</v>
       </c>
       <c r="P23" t="n">
-        <v>67.3792424735876</v>
+        <v>67.37924247358765</v>
       </c>
       <c r="Q23" t="n">
-        <v>50.59900502025979</v>
+        <v>50.59900502025982</v>
       </c>
       <c r="R23" t="n">
-        <v>29.4330636210151</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S23" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004071</v>
       </c>
       <c r="T23" t="n">
-        <v>2.051113143509737</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03748464911040066</v>
+        <v>0.03748464911040069</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2507006927236292</v>
+        <v>0.2507006927236294</v>
       </c>
       <c r="H24" t="n">
-        <v>2.421240900778209</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I24" t="n">
-        <v>8.631580867896883</v>
+        <v>8.63158086789689</v>
       </c>
       <c r="J24" t="n">
-        <v>23.68571764017411</v>
+        <v>23.68571764017413</v>
       </c>
       <c r="K24" t="n">
-        <v>40.48266405265726</v>
+        <v>40.48266405265729</v>
       </c>
       <c r="L24" t="n">
-        <v>54.43393768983888</v>
+        <v>54.43393768983892</v>
       </c>
       <c r="M24" t="n">
-        <v>63.52183780107042</v>
+        <v>63.52183780107047</v>
       </c>
       <c r="N24" t="n">
-        <v>65.20307183253723</v>
+        <v>65.20307183253728</v>
       </c>
       <c r="O24" t="n">
-        <v>59.64807227271365</v>
+        <v>59.64807227271369</v>
       </c>
       <c r="P24" t="n">
-        <v>47.87283666579548</v>
+        <v>47.87283666579551</v>
       </c>
       <c r="Q24" t="n">
-        <v>32.00172351328291</v>
+        <v>32.00172351328294</v>
       </c>
       <c r="R24" t="n">
-        <v>15.56543423770042</v>
+        <v>15.56543423770043</v>
       </c>
       <c r="S24" t="n">
-        <v>4.656655410897232</v>
+        <v>4.656655410897235</v>
       </c>
       <c r="T24" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655457</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,46 +32856,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2101790391974055</v>
+        <v>0.2101790391974057</v>
       </c>
       <c r="H25" t="n">
-        <v>1.868682730318752</v>
+        <v>1.868682730318754</v>
       </c>
       <c r="I25" t="n">
-        <v>6.320656924227434</v>
+        <v>6.320656924227438</v>
       </c>
       <c r="J25" t="n">
-        <v>14.85965807125657</v>
+        <v>14.85965807125658</v>
       </c>
       <c r="K25" t="n">
-        <v>24.4189829176622</v>
+        <v>24.41898291766222</v>
       </c>
       <c r="L25" t="n">
-        <v>31.24789097303973</v>
+        <v>31.24789097303976</v>
       </c>
       <c r="M25" t="n">
-        <v>32.94651975346239</v>
+        <v>32.94651975346241</v>
       </c>
       <c r="N25" t="n">
-        <v>32.16312515281754</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O25" t="n">
-        <v>29.7078518312842</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P25" t="n">
-        <v>25.42019943165711</v>
+        <v>25.42019943165713</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.59962845497548</v>
+        <v>17.59962845497549</v>
       </c>
       <c r="R25" t="n">
-        <v>9.450413889730614</v>
+        <v>9.450413889730619</v>
       </c>
       <c r="S25" t="n">
-        <v>3.662847437649329</v>
+        <v>3.662847437649332</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8980377129343688</v>
+        <v>0.8980377129343694</v>
       </c>
       <c r="U25" t="n">
         <v>0.01146431122894941</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4685581138800083</v>
+        <v>0.4685581138800087</v>
       </c>
       <c r="H26" t="n">
-        <v>4.798620783773637</v>
+        <v>4.79862078377364</v>
       </c>
       <c r="I26" t="n">
-        <v>18.06408668535904</v>
+        <v>18.06408668535905</v>
       </c>
       <c r="J26" t="n">
-        <v>39.76828421792339</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K26" t="n">
-        <v>59.60234917846416</v>
+        <v>59.6023491784642</v>
       </c>
       <c r="L26" t="n">
-        <v>73.94198455611948</v>
+        <v>73.94198455611954</v>
       </c>
       <c r="M26" t="n">
-        <v>82.27470491383308</v>
+        <v>82.27470491383313</v>
       </c>
       <c r="N26" t="n">
-        <v>83.60599565489466</v>
+        <v>83.60599565489471</v>
       </c>
       <c r="O26" t="n">
-        <v>78.94677091000031</v>
+        <v>78.94677091000038</v>
       </c>
       <c r="P26" t="n">
-        <v>67.3792424735876</v>
+        <v>67.37924247358765</v>
       </c>
       <c r="Q26" t="n">
-        <v>50.59900502025979</v>
+        <v>50.59900502025982</v>
       </c>
       <c r="R26" t="n">
-        <v>29.4330636210151</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S26" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004071</v>
       </c>
       <c r="T26" t="n">
-        <v>2.051113143509737</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03748464911040066</v>
+        <v>0.03748464911040069</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2507006927236292</v>
+        <v>0.2507006927236294</v>
       </c>
       <c r="H27" t="n">
-        <v>2.421240900778209</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I27" t="n">
-        <v>8.631580867896883</v>
+        <v>8.63158086789689</v>
       </c>
       <c r="J27" t="n">
-        <v>23.68571764017411</v>
+        <v>23.68571764017413</v>
       </c>
       <c r="K27" t="n">
-        <v>40.48266405265726</v>
+        <v>40.48266405265729</v>
       </c>
       <c r="L27" t="n">
-        <v>54.43393768983888</v>
+        <v>54.43393768983892</v>
       </c>
       <c r="M27" t="n">
-        <v>63.52183780107042</v>
+        <v>63.52183780107047</v>
       </c>
       <c r="N27" t="n">
-        <v>65.20307183253723</v>
+        <v>65.20307183253728</v>
       </c>
       <c r="O27" t="n">
-        <v>59.64807227271365</v>
+        <v>59.64807227271369</v>
       </c>
       <c r="P27" t="n">
-        <v>47.87283666579548</v>
+        <v>47.87283666579551</v>
       </c>
       <c r="Q27" t="n">
-        <v>32.00172351328291</v>
+        <v>32.00172351328294</v>
       </c>
       <c r="R27" t="n">
-        <v>15.56543423770042</v>
+        <v>15.56543423770043</v>
       </c>
       <c r="S27" t="n">
-        <v>4.656655410897232</v>
+        <v>4.656655410897235</v>
       </c>
       <c r="T27" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655457</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,46 +33093,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2101790391974055</v>
+        <v>0.2101790391974057</v>
       </c>
       <c r="H28" t="n">
-        <v>1.868682730318752</v>
+        <v>1.868682730318754</v>
       </c>
       <c r="I28" t="n">
-        <v>6.320656924227434</v>
+        <v>6.320656924227438</v>
       </c>
       <c r="J28" t="n">
-        <v>14.85965807125657</v>
+        <v>14.85965807125658</v>
       </c>
       <c r="K28" t="n">
-        <v>24.4189829176622</v>
+        <v>24.41898291766222</v>
       </c>
       <c r="L28" t="n">
-        <v>31.24789097303973</v>
+        <v>31.24789097303976</v>
       </c>
       <c r="M28" t="n">
-        <v>32.94651975346239</v>
+        <v>32.94651975346241</v>
       </c>
       <c r="N28" t="n">
-        <v>32.16312515281754</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O28" t="n">
-        <v>29.7078518312842</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P28" t="n">
-        <v>25.42019943165711</v>
+        <v>25.42019943165713</v>
       </c>
       <c r="Q28" t="n">
-        <v>17.59962845497548</v>
+        <v>17.59962845497549</v>
       </c>
       <c r="R28" t="n">
-        <v>9.450413889730614</v>
+        <v>9.450413889730619</v>
       </c>
       <c r="S28" t="n">
-        <v>3.662847437649329</v>
+        <v>3.662847437649332</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8980377129343688</v>
+        <v>0.8980377129343694</v>
       </c>
       <c r="U28" t="n">
         <v>0.01146431122894941</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4685581138800083</v>
+        <v>0.4685581138800087</v>
       </c>
       <c r="H29" t="n">
-        <v>4.798620783773637</v>
+        <v>4.79862078377364</v>
       </c>
       <c r="I29" t="n">
-        <v>18.06408668535904</v>
+        <v>18.06408668535905</v>
       </c>
       <c r="J29" t="n">
-        <v>39.76828421792339</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K29" t="n">
-        <v>59.60234917846416</v>
+        <v>59.6023491784642</v>
       </c>
       <c r="L29" t="n">
-        <v>73.94198455611948</v>
+        <v>73.94198455611954</v>
       </c>
       <c r="M29" t="n">
-        <v>82.27470491383308</v>
+        <v>82.27470491383313</v>
       </c>
       <c r="N29" t="n">
-        <v>83.60599565489466</v>
+        <v>83.60599565489471</v>
       </c>
       <c r="O29" t="n">
-        <v>78.94677091000031</v>
+        <v>78.94677091000038</v>
       </c>
       <c r="P29" t="n">
-        <v>67.3792424735876</v>
+        <v>67.37924247358765</v>
       </c>
       <c r="Q29" t="n">
-        <v>50.59900502025979</v>
+        <v>50.59900502025982</v>
       </c>
       <c r="R29" t="n">
-        <v>29.4330636210151</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S29" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004071</v>
       </c>
       <c r="T29" t="n">
-        <v>2.051113143509737</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03748464911040066</v>
+        <v>0.03748464911040069</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2507006927236292</v>
+        <v>0.2507006927236294</v>
       </c>
       <c r="H30" t="n">
-        <v>2.421240900778209</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I30" t="n">
-        <v>8.631580867896883</v>
+        <v>8.63158086789689</v>
       </c>
       <c r="J30" t="n">
-        <v>23.68571764017411</v>
+        <v>23.68571764017413</v>
       </c>
       <c r="K30" t="n">
-        <v>40.48266405265726</v>
+        <v>40.48266405265729</v>
       </c>
       <c r="L30" t="n">
-        <v>54.43393768983888</v>
+        <v>54.43393768983892</v>
       </c>
       <c r="M30" t="n">
-        <v>63.52183780107042</v>
+        <v>63.52183780107047</v>
       </c>
       <c r="N30" t="n">
-        <v>65.20307183253723</v>
+        <v>65.20307183253728</v>
       </c>
       <c r="O30" t="n">
-        <v>59.64807227271365</v>
+        <v>59.64807227271369</v>
       </c>
       <c r="P30" t="n">
-        <v>47.87283666579548</v>
+        <v>47.87283666579551</v>
       </c>
       <c r="Q30" t="n">
-        <v>32.00172351328291</v>
+        <v>32.00172351328294</v>
       </c>
       <c r="R30" t="n">
-        <v>15.56543423770042</v>
+        <v>15.56543423770043</v>
       </c>
       <c r="S30" t="n">
-        <v>4.656655410897232</v>
+        <v>4.656655410897235</v>
       </c>
       <c r="T30" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655457</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,46 +33330,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2101790391974055</v>
+        <v>0.2101790391974057</v>
       </c>
       <c r="H31" t="n">
-        <v>1.868682730318752</v>
+        <v>1.868682730318754</v>
       </c>
       <c r="I31" t="n">
-        <v>6.320656924227434</v>
+        <v>6.320656924227438</v>
       </c>
       <c r="J31" t="n">
-        <v>14.85965807125657</v>
+        <v>14.85965807125658</v>
       </c>
       <c r="K31" t="n">
-        <v>24.4189829176622</v>
+        <v>24.41898291766222</v>
       </c>
       <c r="L31" t="n">
-        <v>31.24789097303973</v>
+        <v>31.24789097303976</v>
       </c>
       <c r="M31" t="n">
-        <v>32.94651975346239</v>
+        <v>32.94651975346241</v>
       </c>
       <c r="N31" t="n">
-        <v>32.16312515281754</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O31" t="n">
-        <v>29.7078518312842</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P31" t="n">
-        <v>25.42019943165711</v>
+        <v>25.42019943165713</v>
       </c>
       <c r="Q31" t="n">
-        <v>17.59962845497548</v>
+        <v>17.59962845497549</v>
       </c>
       <c r="R31" t="n">
-        <v>9.450413889730614</v>
+        <v>9.450413889730619</v>
       </c>
       <c r="S31" t="n">
-        <v>3.662847437649329</v>
+        <v>3.662847437649332</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8980377129343688</v>
+        <v>0.8980377129343694</v>
       </c>
       <c r="U31" t="n">
         <v>0.01146431122894941</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4685581138800083</v>
+        <v>0.4685581138800087</v>
       </c>
       <c r="H32" t="n">
-        <v>4.798620783773637</v>
+        <v>4.79862078377364</v>
       </c>
       <c r="I32" t="n">
-        <v>18.06408668535904</v>
+        <v>18.06408668535905</v>
       </c>
       <c r="J32" t="n">
-        <v>39.76828421792339</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K32" t="n">
-        <v>59.60234917846416</v>
+        <v>59.6023491784642</v>
       </c>
       <c r="L32" t="n">
-        <v>73.94198455611948</v>
+        <v>73.94198455611954</v>
       </c>
       <c r="M32" t="n">
-        <v>82.27470491383308</v>
+        <v>82.27470491383313</v>
       </c>
       <c r="N32" t="n">
-        <v>83.60599565489466</v>
+        <v>83.60599565489471</v>
       </c>
       <c r="O32" t="n">
-        <v>78.94677091000031</v>
+        <v>78.94677091000038</v>
       </c>
       <c r="P32" t="n">
-        <v>67.3792424735876</v>
+        <v>67.37924247358765</v>
       </c>
       <c r="Q32" t="n">
-        <v>50.59900502025979</v>
+        <v>50.59900502025982</v>
       </c>
       <c r="R32" t="n">
-        <v>29.4330636210151</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S32" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004071</v>
       </c>
       <c r="T32" t="n">
-        <v>2.051113143509737</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03748464911040066</v>
+        <v>0.03748464911040069</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2507006927236292</v>
+        <v>0.2507006927236294</v>
       </c>
       <c r="H33" t="n">
-        <v>2.421240900778209</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I33" t="n">
-        <v>8.631580867896883</v>
+        <v>8.63158086789689</v>
       </c>
       <c r="J33" t="n">
-        <v>23.68571764017411</v>
+        <v>23.68571764017413</v>
       </c>
       <c r="K33" t="n">
-        <v>40.48266405265726</v>
+        <v>40.48266405265729</v>
       </c>
       <c r="L33" t="n">
-        <v>54.43393768983888</v>
+        <v>54.43393768983892</v>
       </c>
       <c r="M33" t="n">
-        <v>63.52183780107042</v>
+        <v>63.52183780107047</v>
       </c>
       <c r="N33" t="n">
-        <v>65.20307183253723</v>
+        <v>65.20307183253728</v>
       </c>
       <c r="O33" t="n">
-        <v>59.64807227271365</v>
+        <v>59.64807227271369</v>
       </c>
       <c r="P33" t="n">
-        <v>47.87283666579548</v>
+        <v>47.87283666579551</v>
       </c>
       <c r="Q33" t="n">
-        <v>32.00172351328291</v>
+        <v>32.00172351328294</v>
       </c>
       <c r="R33" t="n">
-        <v>15.56543423770042</v>
+        <v>15.56543423770043</v>
       </c>
       <c r="S33" t="n">
-        <v>4.656655410897232</v>
+        <v>4.656655410897235</v>
       </c>
       <c r="T33" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655457</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,46 +33567,46 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2101790391974055</v>
+        <v>0.2101790391974057</v>
       </c>
       <c r="H34" t="n">
-        <v>1.868682730318752</v>
+        <v>1.868682730318754</v>
       </c>
       <c r="I34" t="n">
-        <v>6.320656924227434</v>
+        <v>6.320656924227438</v>
       </c>
       <c r="J34" t="n">
-        <v>14.85965807125657</v>
+        <v>14.85965807125658</v>
       </c>
       <c r="K34" t="n">
-        <v>24.4189829176622</v>
+        <v>24.41898291766222</v>
       </c>
       <c r="L34" t="n">
-        <v>31.24789097303973</v>
+        <v>31.24789097303976</v>
       </c>
       <c r="M34" t="n">
-        <v>32.94651975346239</v>
+        <v>32.94651975346241</v>
       </c>
       <c r="N34" t="n">
-        <v>32.16312515281754</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O34" t="n">
-        <v>29.7078518312842</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P34" t="n">
-        <v>25.42019943165711</v>
+        <v>25.42019943165713</v>
       </c>
       <c r="Q34" t="n">
-        <v>17.59962845497548</v>
+        <v>17.59962845497549</v>
       </c>
       <c r="R34" t="n">
-        <v>9.450413889730614</v>
+        <v>9.450413889730619</v>
       </c>
       <c r="S34" t="n">
-        <v>3.662847437649329</v>
+        <v>3.662847437649332</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8980377129343688</v>
+        <v>0.8980377129343694</v>
       </c>
       <c r="U34" t="n">
         <v>0.01146431122894941</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4685581138800083</v>
+        <v>0.4685581138800087</v>
       </c>
       <c r="H35" t="n">
-        <v>4.798620783773637</v>
+        <v>4.79862078377364</v>
       </c>
       <c r="I35" t="n">
-        <v>18.06408668535904</v>
+        <v>18.06408668535905</v>
       </c>
       <c r="J35" t="n">
-        <v>39.76828421792339</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K35" t="n">
-        <v>59.60234917846416</v>
+        <v>59.6023491784642</v>
       </c>
       <c r="L35" t="n">
-        <v>73.94198455611948</v>
+        <v>73.94198455611954</v>
       </c>
       <c r="M35" t="n">
-        <v>82.27470491383308</v>
+        <v>82.27470491383313</v>
       </c>
       <c r="N35" t="n">
-        <v>83.60599565489466</v>
+        <v>83.60599565489471</v>
       </c>
       <c r="O35" t="n">
-        <v>78.94677091000031</v>
+        <v>78.94677091000038</v>
       </c>
       <c r="P35" t="n">
-        <v>67.3792424735876</v>
+        <v>67.37924247358765</v>
       </c>
       <c r="Q35" t="n">
-        <v>50.59900502025979</v>
+        <v>50.59900502025982</v>
       </c>
       <c r="R35" t="n">
-        <v>29.4330636210151</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S35" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004071</v>
       </c>
       <c r="T35" t="n">
-        <v>2.051113143509737</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03748464911040066</v>
+        <v>0.03748464911040069</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2507006927236292</v>
+        <v>0.2507006927236294</v>
       </c>
       <c r="H36" t="n">
-        <v>2.421240900778209</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I36" t="n">
-        <v>8.631580867896883</v>
+        <v>8.63158086789689</v>
       </c>
       <c r="J36" t="n">
-        <v>23.68571764017411</v>
+        <v>23.68571764017413</v>
       </c>
       <c r="K36" t="n">
-        <v>40.48266405265726</v>
+        <v>40.48266405265729</v>
       </c>
       <c r="L36" t="n">
-        <v>54.43393768983888</v>
+        <v>54.43393768983892</v>
       </c>
       <c r="M36" t="n">
-        <v>63.52183780107042</v>
+        <v>63.52183780107047</v>
       </c>
       <c r="N36" t="n">
-        <v>65.20307183253723</v>
+        <v>65.20307183253728</v>
       </c>
       <c r="O36" t="n">
-        <v>59.64807227271365</v>
+        <v>59.64807227271369</v>
       </c>
       <c r="P36" t="n">
-        <v>47.87283666579548</v>
+        <v>47.87283666579551</v>
       </c>
       <c r="Q36" t="n">
-        <v>32.00172351328291</v>
+        <v>32.00172351328294</v>
       </c>
       <c r="R36" t="n">
-        <v>15.56543423770042</v>
+        <v>15.56543423770043</v>
       </c>
       <c r="S36" t="n">
-        <v>4.656655410897232</v>
+        <v>4.656655410897235</v>
       </c>
       <c r="T36" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655457</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,46 +33804,46 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2101790391974055</v>
+        <v>0.2101790391974057</v>
       </c>
       <c r="H37" t="n">
-        <v>1.868682730318752</v>
+        <v>1.868682730318754</v>
       </c>
       <c r="I37" t="n">
-        <v>6.320656924227434</v>
+        <v>6.320656924227438</v>
       </c>
       <c r="J37" t="n">
-        <v>14.85965807125657</v>
+        <v>14.85965807125658</v>
       </c>
       <c r="K37" t="n">
-        <v>24.4189829176622</v>
+        <v>24.41898291766222</v>
       </c>
       <c r="L37" t="n">
-        <v>31.24789097303973</v>
+        <v>31.24789097303976</v>
       </c>
       <c r="M37" t="n">
-        <v>32.94651975346239</v>
+        <v>32.94651975346241</v>
       </c>
       <c r="N37" t="n">
-        <v>32.16312515281754</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O37" t="n">
-        <v>29.7078518312842</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P37" t="n">
-        <v>25.42019943165711</v>
+        <v>25.42019943165713</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.59962845497548</v>
+        <v>17.59962845497549</v>
       </c>
       <c r="R37" t="n">
-        <v>9.450413889730614</v>
+        <v>9.450413889730619</v>
       </c>
       <c r="S37" t="n">
-        <v>3.662847437649329</v>
+        <v>3.662847437649332</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8980377129343688</v>
+        <v>0.8980377129343694</v>
       </c>
       <c r="U37" t="n">
         <v>0.01146431122894941</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4685581138800083</v>
+        <v>0.4685581138800087</v>
       </c>
       <c r="H38" t="n">
-        <v>4.798620783773637</v>
+        <v>4.79862078377364</v>
       </c>
       <c r="I38" t="n">
-        <v>18.06408668535904</v>
+        <v>18.06408668535905</v>
       </c>
       <c r="J38" t="n">
-        <v>39.76828421792339</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K38" t="n">
-        <v>59.60234917846416</v>
+        <v>59.6023491784642</v>
       </c>
       <c r="L38" t="n">
-        <v>73.94198455611948</v>
+        <v>73.94198455611954</v>
       </c>
       <c r="M38" t="n">
-        <v>82.27470491383308</v>
+        <v>82.27470491383313</v>
       </c>
       <c r="N38" t="n">
-        <v>83.60599565489466</v>
+        <v>83.60599565489471</v>
       </c>
       <c r="O38" t="n">
-        <v>78.94677091000031</v>
+        <v>78.94677091000038</v>
       </c>
       <c r="P38" t="n">
-        <v>67.3792424735876</v>
+        <v>67.37924247358765</v>
       </c>
       <c r="Q38" t="n">
-        <v>50.59900502025979</v>
+        <v>50.59900502025982</v>
       </c>
       <c r="R38" t="n">
-        <v>29.4330636210151</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S38" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004071</v>
       </c>
       <c r="T38" t="n">
-        <v>2.051113143509737</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03748464911040066</v>
+        <v>0.03748464911040069</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2507006927236292</v>
+        <v>0.2507006927236294</v>
       </c>
       <c r="H39" t="n">
-        <v>2.421240900778209</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I39" t="n">
-        <v>8.631580867896883</v>
+        <v>8.63158086789689</v>
       </c>
       <c r="J39" t="n">
-        <v>23.68571764017411</v>
+        <v>23.68571764017413</v>
       </c>
       <c r="K39" t="n">
-        <v>40.48266405265726</v>
+        <v>40.48266405265729</v>
       </c>
       <c r="L39" t="n">
-        <v>54.43393768983888</v>
+        <v>54.43393768983892</v>
       </c>
       <c r="M39" t="n">
-        <v>63.52183780107042</v>
+        <v>63.52183780107047</v>
       </c>
       <c r="N39" t="n">
-        <v>65.20307183253723</v>
+        <v>65.20307183253728</v>
       </c>
       <c r="O39" t="n">
-        <v>59.64807227271365</v>
+        <v>59.64807227271369</v>
       </c>
       <c r="P39" t="n">
-        <v>47.87283666579548</v>
+        <v>47.87283666579551</v>
       </c>
       <c r="Q39" t="n">
-        <v>32.00172351328291</v>
+        <v>32.00172351328294</v>
       </c>
       <c r="R39" t="n">
-        <v>15.56543423770042</v>
+        <v>15.56543423770043</v>
       </c>
       <c r="S39" t="n">
-        <v>4.656655410897232</v>
+        <v>4.656655410897235</v>
       </c>
       <c r="T39" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655457</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,46 +34041,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2101790391974055</v>
+        <v>0.2101790391974057</v>
       </c>
       <c r="H40" t="n">
-        <v>1.868682730318752</v>
+        <v>1.868682730318754</v>
       </c>
       <c r="I40" t="n">
-        <v>6.320656924227434</v>
+        <v>6.320656924227438</v>
       </c>
       <c r="J40" t="n">
-        <v>14.85965807125657</v>
+        <v>14.85965807125658</v>
       </c>
       <c r="K40" t="n">
-        <v>24.4189829176622</v>
+        <v>24.41898291766222</v>
       </c>
       <c r="L40" t="n">
-        <v>31.24789097303973</v>
+        <v>31.24789097303976</v>
       </c>
       <c r="M40" t="n">
-        <v>32.94651975346239</v>
+        <v>32.94651975346241</v>
       </c>
       <c r="N40" t="n">
-        <v>32.16312515281754</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O40" t="n">
-        <v>29.7078518312842</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P40" t="n">
-        <v>25.42019943165711</v>
+        <v>25.42019943165713</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.59962845497548</v>
+        <v>17.59962845497549</v>
       </c>
       <c r="R40" t="n">
-        <v>9.450413889730614</v>
+        <v>9.450413889730619</v>
       </c>
       <c r="S40" t="n">
-        <v>3.662847437649329</v>
+        <v>3.662847437649332</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8980377129343688</v>
+        <v>0.8980377129343694</v>
       </c>
       <c r="U40" t="n">
         <v>0.01146431122894941</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4685581138800083</v>
+        <v>0.4685581138800087</v>
       </c>
       <c r="H41" t="n">
-        <v>4.798620783773637</v>
+        <v>4.79862078377364</v>
       </c>
       <c r="I41" t="n">
-        <v>18.06408668535904</v>
+        <v>18.06408668535905</v>
       </c>
       <c r="J41" t="n">
-        <v>39.76828421792339</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K41" t="n">
-        <v>59.60234917846416</v>
+        <v>59.6023491784642</v>
       </c>
       <c r="L41" t="n">
-        <v>73.94198455611948</v>
+        <v>73.94198455611954</v>
       </c>
       <c r="M41" t="n">
-        <v>82.27470491383308</v>
+        <v>82.27470491383313</v>
       </c>
       <c r="N41" t="n">
-        <v>83.60599565489466</v>
+        <v>83.60599565489471</v>
       </c>
       <c r="O41" t="n">
-        <v>78.94677091000031</v>
+        <v>78.94677091000038</v>
       </c>
       <c r="P41" t="n">
-        <v>67.3792424735876</v>
+        <v>67.37924247358765</v>
       </c>
       <c r="Q41" t="n">
-        <v>50.59900502025979</v>
+        <v>50.59900502025982</v>
       </c>
       <c r="R41" t="n">
-        <v>29.4330636210151</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S41" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004071</v>
       </c>
       <c r="T41" t="n">
-        <v>2.051113143509737</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03748464911040066</v>
+        <v>0.03748464911040069</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2507006927236292</v>
+        <v>0.2507006927236294</v>
       </c>
       <c r="H42" t="n">
-        <v>2.421240900778209</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I42" t="n">
-        <v>8.631580867896883</v>
+        <v>8.63158086789689</v>
       </c>
       <c r="J42" t="n">
-        <v>23.68571764017411</v>
+        <v>23.68571764017413</v>
       </c>
       <c r="K42" t="n">
-        <v>40.48266405265726</v>
+        <v>40.48266405265729</v>
       </c>
       <c r="L42" t="n">
-        <v>54.43393768983888</v>
+        <v>54.43393768983892</v>
       </c>
       <c r="M42" t="n">
-        <v>63.52183780107042</v>
+        <v>63.52183780107047</v>
       </c>
       <c r="N42" t="n">
-        <v>65.20307183253723</v>
+        <v>65.20307183253728</v>
       </c>
       <c r="O42" t="n">
-        <v>59.64807227271365</v>
+        <v>59.64807227271369</v>
       </c>
       <c r="P42" t="n">
-        <v>47.87283666579548</v>
+        <v>47.87283666579551</v>
       </c>
       <c r="Q42" t="n">
-        <v>32.00172351328291</v>
+        <v>32.00172351328294</v>
       </c>
       <c r="R42" t="n">
-        <v>15.56543423770042</v>
+        <v>15.56543423770043</v>
       </c>
       <c r="S42" t="n">
-        <v>4.656655410897232</v>
+        <v>4.656655410897235</v>
       </c>
       <c r="T42" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655457</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,46 +34278,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2101790391974055</v>
+        <v>0.2101790391974057</v>
       </c>
       <c r="H43" t="n">
-        <v>1.868682730318752</v>
+        <v>1.868682730318754</v>
       </c>
       <c r="I43" t="n">
-        <v>6.320656924227434</v>
+        <v>6.320656924227438</v>
       </c>
       <c r="J43" t="n">
-        <v>14.85965807125657</v>
+        <v>14.85965807125658</v>
       </c>
       <c r="K43" t="n">
-        <v>24.4189829176622</v>
+        <v>24.41898291766222</v>
       </c>
       <c r="L43" t="n">
-        <v>31.24789097303973</v>
+        <v>31.24789097303976</v>
       </c>
       <c r="M43" t="n">
-        <v>32.94651975346239</v>
+        <v>32.94651975346241</v>
       </c>
       <c r="N43" t="n">
-        <v>32.16312515281754</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O43" t="n">
-        <v>29.7078518312842</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P43" t="n">
-        <v>25.42019943165711</v>
+        <v>25.42019943165713</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.59962845497548</v>
+        <v>17.59962845497549</v>
       </c>
       <c r="R43" t="n">
-        <v>9.450413889730614</v>
+        <v>9.450413889730619</v>
       </c>
       <c r="S43" t="n">
-        <v>3.662847437649329</v>
+        <v>3.662847437649332</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8980377129343688</v>
+        <v>0.8980377129343694</v>
       </c>
       <c r="U43" t="n">
         <v>0.01146431122894941</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4685581138800083</v>
+        <v>0.4685581138800087</v>
       </c>
       <c r="H44" t="n">
-        <v>4.798620783773637</v>
+        <v>4.79862078377364</v>
       </c>
       <c r="I44" t="n">
-        <v>18.06408668535904</v>
+        <v>18.06408668535905</v>
       </c>
       <c r="J44" t="n">
-        <v>39.76828421792339</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K44" t="n">
-        <v>59.60234917846416</v>
+        <v>59.6023491784642</v>
       </c>
       <c r="L44" t="n">
-        <v>73.94198455611948</v>
+        <v>73.94198455611954</v>
       </c>
       <c r="M44" t="n">
-        <v>82.27470491383308</v>
+        <v>82.27470491383313</v>
       </c>
       <c r="N44" t="n">
-        <v>83.60599565489466</v>
+        <v>83.60599565489471</v>
       </c>
       <c r="O44" t="n">
-        <v>78.94677091000031</v>
+        <v>78.94677091000038</v>
       </c>
       <c r="P44" t="n">
-        <v>67.3792424735876</v>
+        <v>67.37924247358765</v>
       </c>
       <c r="Q44" t="n">
-        <v>50.59900502025979</v>
+        <v>50.59900502025982</v>
       </c>
       <c r="R44" t="n">
-        <v>29.4330636210151</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S44" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004071</v>
       </c>
       <c r="T44" t="n">
-        <v>2.051113143509737</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03748464911040066</v>
+        <v>0.03748464911040069</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2507006927236292</v>
+        <v>0.2507006927236294</v>
       </c>
       <c r="H45" t="n">
-        <v>2.421240900778209</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I45" t="n">
-        <v>8.631580867896883</v>
+        <v>8.63158086789689</v>
       </c>
       <c r="J45" t="n">
-        <v>23.68571764017411</v>
+        <v>23.68571764017413</v>
       </c>
       <c r="K45" t="n">
-        <v>40.48266405265726</v>
+        <v>40.48266405265729</v>
       </c>
       <c r="L45" t="n">
-        <v>54.43393768983888</v>
+        <v>54.43393768983892</v>
       </c>
       <c r="M45" t="n">
-        <v>63.52183780107042</v>
+        <v>63.52183780107047</v>
       </c>
       <c r="N45" t="n">
-        <v>65.20307183253723</v>
+        <v>65.20307183253728</v>
       </c>
       <c r="O45" t="n">
-        <v>59.64807227271365</v>
+        <v>59.64807227271369</v>
       </c>
       <c r="P45" t="n">
-        <v>47.87283666579548</v>
+        <v>47.87283666579551</v>
       </c>
       <c r="Q45" t="n">
-        <v>32.00172351328291</v>
+        <v>32.00172351328294</v>
       </c>
       <c r="R45" t="n">
-        <v>15.56543423770042</v>
+        <v>15.56543423770043</v>
       </c>
       <c r="S45" t="n">
-        <v>4.656655410897232</v>
+        <v>4.656655410897235</v>
       </c>
       <c r="T45" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655457</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,46 +34515,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2101790391974055</v>
+        <v>0.2101790391974057</v>
       </c>
       <c r="H46" t="n">
-        <v>1.868682730318752</v>
+        <v>1.868682730318754</v>
       </c>
       <c r="I46" t="n">
-        <v>6.320656924227434</v>
+        <v>6.320656924227438</v>
       </c>
       <c r="J46" t="n">
-        <v>14.85965807125657</v>
+        <v>14.85965807125658</v>
       </c>
       <c r="K46" t="n">
-        <v>24.4189829176622</v>
+        <v>24.41898291766222</v>
       </c>
       <c r="L46" t="n">
-        <v>31.24789097303973</v>
+        <v>31.24789097303976</v>
       </c>
       <c r="M46" t="n">
-        <v>32.94651975346239</v>
+        <v>32.94651975346241</v>
       </c>
       <c r="N46" t="n">
-        <v>32.16312515281754</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O46" t="n">
-        <v>29.7078518312842</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P46" t="n">
-        <v>25.42019943165711</v>
+        <v>25.42019943165713</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.59962845497548</v>
+        <v>17.59962845497549</v>
       </c>
       <c r="R46" t="n">
-        <v>9.450413889730614</v>
+        <v>9.450413889730619</v>
       </c>
       <c r="S46" t="n">
-        <v>3.662847437649329</v>
+        <v>3.662847437649332</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8980377129343688</v>
+        <v>0.8980377129343694</v>
       </c>
       <c r="U46" t="n">
         <v>0.01146431122894941</v>
@@ -35404,37 +35404,37 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>67.03930354485628</v>
+        <v>67.03930354485632</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>112.73273045278</v>
       </c>
       <c r="K11" t="n">
-        <v>100.8435888672066</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>39.73680072784526</v>
       </c>
       <c r="M11" t="n">
-        <v>115.1826340794632</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>28.34731923514328</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>112.0562177926691</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>99.56667708522036</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03987566005875</v>
+        <v>90.03987566005881</v>
       </c>
       <c r="R11" t="n">
-        <v>74.33405780982193</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>45.38482606688031</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>25.39117343086827</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35516,7 +35516,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>25.39117343086833</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -35550,7 +35550,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>69.57531956649487</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -35571,13 +35571,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>56.41707398622953</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>118.4641751367743</v>
       </c>
       <c r="N13" t="n">
-        <v>131.6224207170398</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>112.7327304527799</v>
+        <v>112.73273045278</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>102.446016055794</v>
+        <v>91.16014727845865</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>115.1826340794633</v>
       </c>
       <c r="N14" t="n">
-        <v>4.330088216908271</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>112.056217792669</v>
+        <v>112.0562177926691</v>
       </c>
       <c r="P14" t="n">
-        <v>99.56667708522028</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03987566005875</v>
+        <v>90.03987566005881</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35705,7 +35705,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>25.39117343086827</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>25.39117343086833</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35787,7 +35787,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>44.01321141299682</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -35805,13 +35805,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>131.6224207170398</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>131.6224207170397</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -35826,10 +35826,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>56.41707398622952</v>
       </c>
       <c r="S16" t="n">
-        <v>12.1544261300892</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -35847,7 +35847,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.2494364431435088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -35875,10 +35875,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.222581945281328</v>
+        <v>5.222581945281275</v>
       </c>
       <c r="I17" t="n">
-        <v>131.6224207170398</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35887,34 +35887,34 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>121.0817611670295</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>131.6224207170397</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>131.6224207170397</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>131.6224207170398</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>131.6224207170398</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>131.6224207170397</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>109.8527791573823</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>11.22898200964728</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>126.3043431123107</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>131.6224207170398</v>
+        <v>131.6224207170397</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36139,19 +36139,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>70.45596012583238</v>
+        <v>131.6224207170397</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>131.6224207170398</v>
+        <v>131.6224207170397</v>
       </c>
       <c r="T20" t="n">
-        <v>109.8527791573823</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>77.618024546136</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36352,10 +36352,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>48.68631856617475</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>131.6224207170397</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -36367,28 +36367,28 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>131.6224207170398</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>131.6224207170398</v>
+        <v>131.6224207170397</v>
       </c>
       <c r="P23" t="n">
-        <v>131.6224207170398</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>126.3043431123109</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>131.6224207170397</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>77.618024546136</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36589,37 +36589,37 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>56.10332119515236</v>
+        <v>56.10332119515228</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>101.796748103076</v>
       </c>
       <c r="K26" t="n">
-        <v>54.49254330420866</v>
+        <v>89.90760651750267</v>
       </c>
       <c r="L26" t="n">
-        <v>486.5906009745435</v>
+        <v>91.5100337060901</v>
       </c>
       <c r="M26" t="n">
-        <v>104.2466517297593</v>
+        <v>53.98035375738086</v>
       </c>
       <c r="N26" t="n">
-        <v>106.3361427957498</v>
+        <v>486.5906009745441</v>
       </c>
       <c r="O26" t="n">
-        <v>277.2289354539843</v>
+        <v>486.5906009745441</v>
       </c>
       <c r="P26" t="n">
-        <v>486.5906009745435</v>
+        <v>297.8407540453586</v>
       </c>
       <c r="Q26" t="n">
-        <v>355.1133811682309</v>
+        <v>79.10389331035478</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>148.8294212949951</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>34.44884371717631</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>55.01779765020202</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36698,7 +36698,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>55.01779765020228</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -36747,16 +36747,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>72.68790428396444</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>182.0452519386193</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>130.7823528076188</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36771,13 +36771,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>122.7323596345802</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.2184437803852</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>56.10332119515236</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>101.796748103076</v>
+        <v>321.6223478267719</v>
       </c>
       <c r="K29" t="n">
-        <v>486.5906009745435</v>
+        <v>437.3689437991706</v>
       </c>
       <c r="L29" t="n">
-        <v>486.5906009745435</v>
+        <v>412.2637800980083</v>
       </c>
       <c r="M29" t="n">
         <v>104.2466517297593</v>
       </c>
       <c r="N29" t="n">
-        <v>486.5906009745435</v>
+        <v>106.3361427957499</v>
       </c>
       <c r="O29" t="n">
-        <v>132.5508495204253</v>
+        <v>101.1202354429652</v>
       </c>
       <c r="P29" t="n">
-        <v>8.834728664010896</v>
+        <v>88.63069473551641</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>355.1133811682309</v>
       </c>
       <c r="R29" t="n">
-        <v>63.39807546011802</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36923,13 +36923,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>55.01779765020202</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>55.01779765020203</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36963,7 +36963,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>27.40844631554924</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -36972,7 +36972,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>58.63933721679092</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -36981,7 +36981,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>39.96140072305614</v>
+        <v>53.21802527488511</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>128.7239719671875</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>200.2966871673134</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -37014,7 +37014,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1.218443780385285</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -37063,37 +37063,37 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>56.1033211951525</v>
+        <v>56.10332119515237</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>321.6223478267719</v>
       </c>
       <c r="K32" t="n">
-        <v>61.83061228076337</v>
+        <v>486.5906009745435</v>
       </c>
       <c r="L32" t="n">
-        <v>486.5906009745435</v>
+        <v>129.0725224632332</v>
       </c>
       <c r="M32" t="n">
-        <v>104.2466517297594</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>465.7588832182439</v>
+        <v>106.3361427957499</v>
       </c>
       <c r="O32" t="n">
         <v>486.5906009745435</v>
       </c>
       <c r="P32" t="n">
-        <v>88.6306947355165</v>
+        <v>88.63069473551641</v>
       </c>
       <c r="Q32" t="n">
-        <v>79.10389331035498</v>
+        <v>68.4776816184899</v>
       </c>
       <c r="R32" t="n">
-        <v>63.39807546011816</v>
+        <v>148.8294212949952</v>
       </c>
       <c r="S32" t="n">
-        <v>34.44884371717653</v>
+        <v>34.44884371717639</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37133,7 +37133,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>55.01779765020202</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>55.01779765020158</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37215,7 +37215,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>42.10788920645432</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>83.42768540700983</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>129.1975816091187</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>127.1745367899513</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>126.3401756522472</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37251,7 +37251,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1.218443780385285</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>97.75868019256767</v>
+        <v>97.75868019256779</v>
       </c>
       <c r="J35" t="n">
-        <v>143.4521071004913</v>
+        <v>143.4521071004915</v>
       </c>
       <c r="K35" t="n">
-        <v>131.562965514918</v>
+        <v>131.5629655149182</v>
       </c>
       <c r="L35" t="n">
-        <v>133.1653927035054</v>
+        <v>133.1653927035056</v>
       </c>
       <c r="M35" t="n">
-        <v>145.9020107271756</v>
+        <v>145.9020107271747</v>
       </c>
       <c r="N35" t="n">
-        <v>147.9915017931651</v>
+        <v>147.9915017931653</v>
       </c>
       <c r="O35" t="n">
-        <v>142.7755944403804</v>
+        <v>142.7755944403806</v>
       </c>
       <c r="P35" t="n">
-        <v>130.2860537329317</v>
+        <v>130.2860537329318</v>
       </c>
       <c r="Q35" t="n">
-        <v>120.7592523077701</v>
+        <v>120.7592523077703</v>
       </c>
       <c r="R35" t="n">
-        <v>105.0534344575333</v>
+        <v>105.0534344575335</v>
       </c>
       <c r="S35" t="n">
-        <v>76.10420271459169</v>
+        <v>76.10420271459182</v>
       </c>
       <c r="T35" t="n">
-        <v>30.71937664771137</v>
+        <v>30.7193766477115</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37464,13 +37464,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>74.86868762166814</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>31.9948848438671</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -37488,7 +37488,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>42.87380277780071</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>97.75868019256767</v>
+        <v>97.75868019256779</v>
       </c>
       <c r="J38" t="n">
-        <v>143.4521071004913</v>
+        <v>143.4521071004915</v>
       </c>
       <c r="K38" t="n">
-        <v>131.562965514918</v>
+        <v>131.5629655149182</v>
       </c>
       <c r="L38" t="n">
-        <v>133.1653927035054</v>
+        <v>133.1653927035056</v>
       </c>
       <c r="M38" t="n">
-        <v>145.9020107271746</v>
+        <v>145.9020107271747</v>
       </c>
       <c r="N38" t="n">
-        <v>147.9915017931651</v>
+        <v>147.9915017931653</v>
       </c>
       <c r="O38" t="n">
-        <v>142.775594440383</v>
+        <v>142.7755944403806</v>
       </c>
       <c r="P38" t="n">
-        <v>130.2860537329317</v>
+        <v>130.2860537329318</v>
       </c>
       <c r="Q38" t="n">
-        <v>120.7592523077701</v>
+        <v>120.7592523077703</v>
       </c>
       <c r="R38" t="n">
-        <v>105.0534344575333</v>
+        <v>105.0534344575327</v>
       </c>
       <c r="S38" t="n">
-        <v>76.10420271459169</v>
+        <v>76.10420271459182</v>
       </c>
       <c r="T38" t="n">
-        <v>30.71937664771137</v>
+        <v>30.71937664771148</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37695,13 +37695,13 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>31.9948848438671</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>53.02500677474556</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -37725,7 +37725,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>42.87380277780071</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37740,7 +37740,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>21.84368084692258</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>97.75868019256772</v>
+        <v>97.75868019256771</v>
       </c>
       <c r="J41" t="n">
         <v>143.4521071004914</v>
@@ -37783,7 +37783,7 @@
         <v>131.5629655149181</v>
       </c>
       <c r="L41" t="n">
-        <v>133.1653927035055</v>
+        <v>133.1653927035067</v>
       </c>
       <c r="M41" t="n">
         <v>145.9020107271746</v>
@@ -37804,10 +37804,10 @@
         <v>105.0534344575334</v>
       </c>
       <c r="S41" t="n">
-        <v>76.10420271459175</v>
+        <v>76.10420271459174</v>
       </c>
       <c r="T41" t="n">
-        <v>30.71937664771141</v>
+        <v>30.7193766477114</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37932,7 +37932,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>43.89987453081302</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>54.03419325071105</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -37965,7 +37965,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>20.83449437095702</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -37980,7 +37980,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>30.96881309085495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -38011,40 +38011,40 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>97.75868019256772</v>
+        <v>97.75868019256762</v>
       </c>
       <c r="J44" t="n">
-        <v>143.4521071004914</v>
+        <v>143.4521071004913</v>
       </c>
       <c r="K44" t="n">
-        <v>131.5629655149181</v>
+        <v>131.562965514918</v>
       </c>
       <c r="L44" t="n">
-        <v>133.1653927035061</v>
+        <v>133.1653927035054</v>
       </c>
       <c r="M44" t="n">
         <v>145.9020107271746</v>
       </c>
       <c r="N44" t="n">
-        <v>147.9915017931652</v>
+        <v>147.9915017931651</v>
       </c>
       <c r="O44" t="n">
-        <v>142.7755944403805</v>
+        <v>142.7755944403804</v>
       </c>
       <c r="P44" t="n">
-        <v>130.2860537329317</v>
+        <v>130.2860537329337</v>
       </c>
       <c r="Q44" t="n">
-        <v>120.7592523077702</v>
+        <v>120.7592523077701</v>
       </c>
       <c r="R44" t="n">
-        <v>105.0534344575334</v>
+        <v>105.0534344575333</v>
       </c>
       <c r="S44" t="n">
-        <v>76.10420271459175</v>
+        <v>76.10420271459165</v>
       </c>
       <c r="T44" t="n">
-        <v>30.71937664771143</v>
+        <v>30.71937664771131</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38163,7 +38163,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>74.86868762166796</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>74.86868762166831</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
